--- a/raw_data/20200818_saline/20200818_Sensor1_Test_15.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_15.xlsx
@@ -1,703 +1,1119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4226E42-F893-4BBA-831E-B6A938D65626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>12788.553209</v>
       </c>
       <c r="B2" s="1">
-        <v>3.552376</v>
+        <v>3.5523760000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>895.962000</v>
+        <v>895.96199999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-198.958000</v>
+        <v>-198.958</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>12798.951825</v>
       </c>
       <c r="G2" s="1">
-        <v>3.555264</v>
+        <v>3.5552640000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>914.304000</v>
+        <v>914.30399999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-168.717000</v>
+        <v>-168.71700000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>12809.447144</v>
       </c>
       <c r="L2" s="1">
-        <v>3.558180</v>
+        <v>3.5581800000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>937.851000</v>
+        <v>937.851</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.513000</v>
+        <v>-119.51300000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>12819.975512</v>
+        <v>12819.975512000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>3.561104</v>
+        <v>3.5611039999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>944.481000</v>
+        <v>944.48099999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.393000</v>
+        <v>-103.393</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>12830.534098</v>
       </c>
       <c r="V2" s="1">
-        <v>3.564037</v>
+        <v>3.5640369999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>951.113000</v>
+        <v>951.11300000000006</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.403600</v>
+        <v>-88.403599999999997</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>12840.968894</v>
       </c>
       <c r="AA2" s="1">
-        <v>3.566936</v>
+        <v>3.5669360000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>958.061000</v>
+        <v>958.06100000000004</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.831500</v>
+        <v>-76.831500000000005</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>12851.890800</v>
+        <v>12851.890799999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>3.569970</v>
+        <v>3.5699700000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>962.786000</v>
+        <v>962.78599999999994</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.745200</v>
+        <v>-74.745199999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>12861.977442</v>
+        <v>12861.977441999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>3.572772</v>
+        <v>3.5727720000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>969.978000</v>
+        <v>969.97799999999995</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.621100</v>
+        <v>-79.621099999999998</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>12872.564548</v>
       </c>
       <c r="AP2" s="1">
-        <v>3.575712</v>
+        <v>3.5757119999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>978.095000</v>
+        <v>978.09500000000003</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.331800</v>
+        <v>-91.331800000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>12883.535063</v>
+        <v>12883.535062999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>3.578760</v>
+        <v>3.5787599999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>987.917000</v>
+        <v>987.91700000000003</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.202000</v>
+        <v>-109.202</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>12895.046216</v>
+        <v>12895.046216000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>3.581957</v>
+        <v>3.5819570000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>996.191000</v>
+        <v>996.19100000000003</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.854000</v>
+        <v>-124.854</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>12906.017789</v>
       </c>
       <c r="BE2" s="1">
-        <v>3.585005</v>
+        <v>3.5850050000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1034.770000</v>
+        <v>1034.77</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.102000</v>
+        <v>-197.102</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>12916.852330</v>
+        <v>12916.85233</v>
       </c>
       <c r="BJ2" s="1">
         <v>3.588015</v>
       </c>
       <c r="BK2" s="1">
-        <v>1101.030000</v>
+        <v>1101.03</v>
       </c>
       <c r="BL2" s="1">
-        <v>-314.819000</v>
+        <v>-314.81900000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>12927.934977</v>
+        <v>12927.934977000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>3.591093</v>
+        <v>3.5910929999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1208.870000</v>
+        <v>1208.8699999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-501.108000</v>
+        <v>-501.108</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>12938.259165</v>
+        <v>12938.259164999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>3.593961</v>
+        <v>3.5939610000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>1330.820000</v>
+        <v>1330.82</v>
       </c>
       <c r="BV2" s="1">
-        <v>-706.635000</v>
+        <v>-706.63499999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>12948.938031</v>
@@ -706,90 +1122,90 @@
         <v>3.596927</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1467.630000</v>
+        <v>1467.63</v>
       </c>
       <c r="CA2" s="1">
-        <v>-925.725000</v>
+        <v>-925.72500000000002</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>12960.220565</v>
       </c>
       <c r="CD2" s="1">
-        <v>3.600061</v>
+        <v>3.6000610000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>1828.740000</v>
+        <v>1828.74</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1447.270000</v>
+        <v>-1447.27</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>12788.930130</v>
+        <v>12788.930130000001</v>
       </c>
       <c r="B3" s="1">
-        <v>3.552481</v>
+        <v>3.5524810000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>895.972000</v>
+        <v>895.97199999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-198.898000</v>
+        <v>-198.898</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>12799.318341</v>
       </c>
       <c r="G3" s="1">
-        <v>3.555366</v>
+        <v>3.5553659999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>914.001000</v>
+        <v>914.00099999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.672000</v>
+        <v>-168.672</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>12809.835015</v>
+        <v>12809.835015000001</v>
       </c>
       <c r="L3" s="1">
-        <v>3.558288</v>
+        <v>3.5582880000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>937.695000</v>
+        <v>937.69500000000005</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.660000</v>
+        <v>-119.66</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>12820.348715</v>
       </c>
       <c r="Q3" s="1">
-        <v>3.561208</v>
+        <v>3.5612080000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>944.489000</v>
+        <v>944.48900000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.338000</v>
+        <v>-103.33799999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>12831.245819</v>
@@ -798,240 +1214,240 @@
         <v>3.564235</v>
       </c>
       <c r="W3" s="1">
-        <v>951.059000</v>
+        <v>951.05899999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.396500</v>
+        <v>-88.396500000000003</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>12841.706779</v>
       </c>
       <c r="AA3" s="1">
-        <v>3.567141</v>
+        <v>3.5671409999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>958.116000</v>
+        <v>958.11599999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.924500</v>
+        <v>-76.924499999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>12852.222638</v>
+        <v>12852.222637999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>3.570062</v>
+        <v>3.5700620000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>962.765000</v>
+        <v>962.76499999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.784300</v>
+        <v>-74.784300000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>12862.362833</v>
+        <v>12862.362832999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>3.572879</v>
+        <v>3.5728789999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>969.960000</v>
+        <v>969.96</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.645400</v>
+        <v>-79.645399999999995</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>12872.944485</v>
       </c>
       <c r="AP3" s="1">
-        <v>3.575818</v>
+        <v>3.5758179999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>978.080000</v>
+        <v>978.08</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.317800</v>
+        <v>-91.317800000000005</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>12884.238390</v>
+        <v>12884.23839</v>
       </c>
       <c r="AU3" s="1">
-        <v>3.578955</v>
+        <v>3.5789550000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>987.897000</v>
+        <v>987.89700000000005</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.139000</v>
+        <v>-109.139</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>12895.462391</v>
+        <v>12895.462390999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>3.582073</v>
+        <v>3.5820729999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>996.179000</v>
+        <v>996.17899999999997</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.860000</v>
+        <v>-124.86</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>12906.461639</v>
+        <v>12906.461638999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>3.585128</v>
+        <v>3.5851280000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1034.760000</v>
+        <v>1034.76</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.113000</v>
+        <v>-197.113</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>12917.232762</v>
       </c>
       <c r="BJ3" s="1">
-        <v>3.588120</v>
+        <v>3.58812</v>
       </c>
       <c r="BK3" s="1">
-        <v>1101.060000</v>
+        <v>1101.06</v>
       </c>
       <c r="BL3" s="1">
-        <v>-314.801000</v>
+        <v>-314.80099999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>12928.342659</v>
       </c>
       <c r="BO3" s="1">
-        <v>3.591206</v>
+        <v>3.5912060000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1208.880000</v>
+        <v>1208.8800000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-501.184000</v>
+        <v>-501.18400000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>12938.696174</v>
+        <v>12938.696174000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>3.594082</v>
+        <v>3.5940820000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1330.760000</v>
+        <v>1330.76</v>
       </c>
       <c r="BV3" s="1">
-        <v>-706.746000</v>
+        <v>-706.74599999999998</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>12949.399806</v>
+        <v>12949.399805999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>3.597056</v>
+        <v>3.5970559999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1467.540000</v>
+        <v>1467.54</v>
       </c>
       <c r="CA3" s="1">
-        <v>-925.575000</v>
+        <v>-925.57500000000005</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>12960.474017</v>
       </c>
       <c r="CD3" s="1">
-        <v>3.600132</v>
+        <v>3.6001319999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1828.950000</v>
+        <v>1828.95</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1446.260000</v>
+        <v>-1446.26</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>12789.270883</v>
+        <v>12789.270882999999</v>
       </c>
       <c r="B4" s="1">
         <v>3.552575</v>
       </c>
       <c r="C4" s="1">
-        <v>896.001000</v>
+        <v>896.00099999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-199.183000</v>
+        <v>-199.18299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>12799.664548</v>
+        <v>12799.664548000001</v>
       </c>
       <c r="G4" s="1">
-        <v>3.555462</v>
+        <v>3.5554619999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>914.238000</v>
+        <v>914.23800000000006</v>
       </c>
       <c r="I4" s="1">
-        <v>-168.547000</v>
+        <v>-168.547</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>12810.197591</v>
       </c>
       <c r="L4" s="1">
-        <v>3.558388</v>
+        <v>3.5583879999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>937.792000</v>
+        <v>937.79200000000003</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.604000</v>
+        <v>-119.604</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>12821.044634</v>
@@ -1040,58 +1456,58 @@
         <v>3.561401</v>
       </c>
       <c r="R4" s="1">
-        <v>944.508000</v>
+        <v>944.50800000000004</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.361000</v>
+        <v>-103.361</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>12831.587563</v>
+        <v>12831.587562999999</v>
       </c>
       <c r="V4" s="1">
-        <v>3.564330</v>
+        <v>3.56433</v>
       </c>
       <c r="W4" s="1">
-        <v>951.043000</v>
+        <v>951.04300000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.417000</v>
+        <v>-88.417000000000002</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>12842.055132</v>
       </c>
       <c r="AA4" s="1">
-        <v>3.567238</v>
+        <v>3.5672380000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>958.168000</v>
+        <v>958.16800000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.955100</v>
+        <v>-76.955100000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>12852.567839</v>
+        <v>12852.567838999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>3.570158</v>
+        <v>3.5701580000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>962.725000</v>
+        <v>962.72500000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.780100</v>
+        <v>-74.780100000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>12863.028961</v>
@@ -1100,28 +1516,28 @@
         <v>3.573064</v>
       </c>
       <c r="AL4" s="1">
-        <v>969.993000</v>
+        <v>969.99300000000005</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.629100</v>
+        <v>-79.629099999999994</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>12873.605653</v>
+        <v>12873.605653000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>3.576002</v>
+        <v>3.5760019999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>978.068000</v>
+        <v>978.06799999999998</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.338400</v>
+        <v>-91.338399999999993</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>12884.669779</v>
@@ -1130,135 +1546,135 @@
         <v>3.579075</v>
       </c>
       <c r="AV4" s="1">
-        <v>987.903000</v>
+        <v>987.90300000000002</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.147000</v>
+        <v>-109.14700000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>12895.832410</v>
+        <v>12895.832410000001</v>
       </c>
       <c r="AZ4" s="1">
         <v>3.582176</v>
       </c>
       <c r="BA4" s="1">
-        <v>996.169000</v>
+        <v>996.16899999999998</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.851000</v>
+        <v>-124.851</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>12906.824216</v>
+        <v>12906.824216000001</v>
       </c>
       <c r="BE4" s="1">
         <v>3.585229</v>
       </c>
       <c r="BF4" s="1">
-        <v>1034.750000</v>
+        <v>1034.75</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.122000</v>
+        <v>-197.12200000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>12917.631049</v>
       </c>
       <c r="BJ4" s="1">
-        <v>3.588231</v>
+        <v>3.5882309999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1101.050000</v>
+        <v>1101.05</v>
       </c>
       <c r="BL4" s="1">
-        <v>-314.801000</v>
+        <v>-314.80099999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>12928.770698</v>
       </c>
       <c r="BO4" s="1">
-        <v>3.591325</v>
+        <v>3.5913249999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1208.860000</v>
+        <v>1208.8599999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-501.127000</v>
+        <v>-501.12700000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>12939.130173</v>
       </c>
       <c r="BT4" s="1">
-        <v>3.594203</v>
+        <v>3.5942029999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1330.700000</v>
+        <v>1330.7</v>
       </c>
       <c r="BV4" s="1">
-        <v>-706.768000</v>
+        <v>-706.76800000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>12949.820910</v>
+        <v>12949.82091</v>
       </c>
       <c r="BY4" s="1">
         <v>3.597172</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1467.690000</v>
+        <v>1467.69</v>
       </c>
       <c r="CA4" s="1">
-        <v>-925.689000</v>
+        <v>-925.68899999999996</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>12961.007183</v>
       </c>
       <c r="CD4" s="1">
-        <v>3.600280</v>
+        <v>3.6002800000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1829.240000</v>
+        <v>1829.24</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1448.040000</v>
+        <v>-1448.04</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>12789.613122</v>
+        <v>12789.613122000001</v>
       </c>
       <c r="B5" s="1">
-        <v>3.552670</v>
+        <v>3.55267</v>
       </c>
       <c r="C5" s="1">
-        <v>895.818000</v>
+        <v>895.81799999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>-199.069000</v>
+        <v>-199.06899999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>12800.351546</v>
@@ -1267,88 +1683,88 @@
         <v>3.555653</v>
       </c>
       <c r="H5" s="1">
-        <v>914.451000</v>
+        <v>914.45100000000002</v>
       </c>
       <c r="I5" s="1">
-        <v>-168.384000</v>
+        <v>-168.38399999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>12810.892487</v>
+        <v>12810.892486999999</v>
       </c>
       <c r="L5" s="1">
-        <v>3.558581</v>
+        <v>3.5585810000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>937.663000</v>
+        <v>937.66300000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.579000</v>
+        <v>-119.57899999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>12821.392296</v>
       </c>
       <c r="Q5" s="1">
-        <v>3.561498</v>
+        <v>3.5614979999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>944.515000</v>
+        <v>944.51499999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.379000</v>
+        <v>-103.379</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>12831.933306</v>
+        <v>12831.933306000001</v>
       </c>
       <c r="V5" s="1">
-        <v>3.564426</v>
+        <v>3.5644260000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>950.963000</v>
+        <v>950.96299999999997</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.413000</v>
+        <v>-88.412999999999997</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>12842.408285</v>
       </c>
       <c r="AA5" s="1">
-        <v>3.567336</v>
+        <v>3.5673360000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>958.108000</v>
+        <v>958.10799999999995</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.845900</v>
+        <v>-76.8459</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>12853.225534</v>
+        <v>12853.225533999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>3.570340</v>
+        <v>3.5703399999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>962.755000</v>
+        <v>962.755</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.761400</v>
+        <v>-74.761399999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>12863.408898</v>
@@ -1357,103 +1773,103 @@
         <v>3.573169</v>
       </c>
       <c r="AL5" s="1">
-        <v>969.987000</v>
+        <v>969.98699999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.635300</v>
+        <v>-79.635300000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>12874.050066</v>
       </c>
       <c r="AP5" s="1">
-        <v>3.576125</v>
+        <v>3.5761250000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>978.079000</v>
+        <v>978.07899999999995</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.332600</v>
+        <v>-91.332599999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>12885.050836</v>
       </c>
       <c r="AU5" s="1">
-        <v>3.579181</v>
+        <v>3.5791810000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>987.904000</v>
+        <v>987.904</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.157000</v>
+        <v>-109.157</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>12896.185250</v>
+        <v>12896.18525</v>
       </c>
       <c r="AZ5" s="1">
         <v>3.582274</v>
       </c>
       <c r="BA5" s="1">
-        <v>996.189000</v>
+        <v>996.18899999999996</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.856000</v>
+        <v>-124.85599999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>12907.184559</v>
+        <v>12907.184558999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>3.585329</v>
+        <v>3.5853290000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1034.760000</v>
+        <v>1034.76</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.121000</v>
+        <v>-197.12100000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>12918.049176</v>
       </c>
       <c r="BJ5" s="1">
-        <v>3.588347</v>
+        <v>3.5883470000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1101.020000</v>
+        <v>1101.02</v>
       </c>
       <c r="BL5" s="1">
-        <v>-314.800000</v>
+        <v>-314.8</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>12929.163033</v>
+        <v>12929.163033000001</v>
       </c>
       <c r="BO5" s="1">
         <v>3.591434</v>
       </c>
       <c r="BP5" s="1">
-        <v>1208.880000</v>
+        <v>1208.8800000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-501.167000</v>
+        <v>-501.16699999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>12939.547787</v>
@@ -1462,75 +1878,75 @@
         <v>3.594319</v>
       </c>
       <c r="BU5" s="1">
-        <v>1330.590000</v>
+        <v>1330.59</v>
       </c>
       <c r="BV5" s="1">
-        <v>-706.753000</v>
+        <v>-706.75300000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>12950.261853</v>
       </c>
       <c r="BY5" s="1">
-        <v>3.597295</v>
+        <v>3.5972949999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1467.620000</v>
+        <v>1467.62</v>
       </c>
       <c r="CA5" s="1">
-        <v>-925.755000</v>
+        <v>-925.755</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>12961.546832</v>
       </c>
       <c r="CD5" s="1">
-        <v>3.600430</v>
+        <v>3.6004299999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>1829.970000</v>
+        <v>1829.97</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1446.460000</v>
+        <v>-1446.46</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>12790.294625</v>
       </c>
       <c r="B6" s="1">
-        <v>3.552860</v>
+        <v>3.5528599999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>896.075000</v>
+        <v>896.07500000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>-198.990000</v>
+        <v>-198.99</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>12800.700692</v>
       </c>
       <c r="G6" s="1">
-        <v>3.555750</v>
+        <v>3.5557500000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>914.221000</v>
+        <v>914.221</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.463000</v>
+        <v>-168.46299999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>12811.239189</v>
@@ -1539,88 +1955,88 @@
         <v>3.558678</v>
       </c>
       <c r="M6" s="1">
-        <v>937.571000</v>
+        <v>937.57100000000003</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.538000</v>
+        <v>-119.538</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>12821.741859</v>
       </c>
       <c r="Q6" s="1">
-        <v>3.561595</v>
+        <v>3.5615950000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>944.491000</v>
+        <v>944.49099999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.399000</v>
+        <v>-103.399</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>12832.586505</v>
+        <v>12832.586504999999</v>
       </c>
       <c r="V6" s="1">
-        <v>3.564607</v>
+        <v>3.5646070000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>950.992000</v>
+        <v>950.99199999999996</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.392100</v>
+        <v>-88.392099999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>12843.059532</v>
+        <v>12843.059531999999</v>
       </c>
       <c r="AA6" s="1">
         <v>3.567517</v>
       </c>
       <c r="AB6" s="1">
-        <v>958.064000</v>
+        <v>958.06399999999996</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.825200</v>
+        <v>-76.825199999999995</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>12853.597535</v>
+        <v>12853.597535000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.570444</v>
+        <v>3.5704440000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>962.795000</v>
+        <v>962.79499999999996</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.769800</v>
+        <v>-74.769800000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>12863.756591</v>
+        <v>12863.756590999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>3.573266</v>
+        <v>3.5732659999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>969.997000</v>
+        <v>969.99699999999996</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.641500</v>
+        <v>-79.641499999999994</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>12874.409704</v>
@@ -1629,28 +2045,28 @@
         <v>3.576225</v>
       </c>
       <c r="AQ6" s="1">
-        <v>978.072000</v>
+        <v>978.072</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.338900</v>
+        <v>-91.338899999999995</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>12885.414931</v>
+        <v>12885.414930999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>3.579282</v>
+        <v>3.5792820000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>987.923000</v>
+        <v>987.923</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.121000</v>
+        <v>-109.121</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>12896.602025</v>
@@ -1659,377 +2075,377 @@
         <v>3.582389</v>
       </c>
       <c r="BA6" s="1">
-        <v>996.182000</v>
+        <v>996.18200000000002</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.822000</v>
+        <v>-124.822</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>12907.600950</v>
+        <v>12907.60095</v>
       </c>
       <c r="BE6" s="1">
         <v>3.585445</v>
       </c>
       <c r="BF6" s="1">
-        <v>1034.740000</v>
+        <v>1034.74</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.106000</v>
+        <v>-197.10599999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>12918.382985</v>
       </c>
       <c r="BJ6" s="1">
-        <v>3.588440</v>
+        <v>3.5884399999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1101.060000</v>
+        <v>1101.06</v>
       </c>
       <c r="BL6" s="1">
-        <v>-314.810000</v>
+        <v>-314.81</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>12929.582153</v>
+        <v>12929.582152999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>3.591551</v>
+        <v>3.5915509999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1208.860000</v>
+        <v>1208.8599999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-501.165000</v>
+        <v>-501.16500000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>12939.975356</v>
+        <v>12939.975356000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>3.594438</v>
+        <v>3.5944379999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>1330.550000</v>
+        <v>1330.55</v>
       </c>
       <c r="BV6" s="1">
-        <v>-706.731000</v>
+        <v>-706.73099999999999</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>12950.691390</v>
+        <v>12950.69139</v>
       </c>
       <c r="BY6" s="1">
-        <v>3.597414</v>
+        <v>3.5974140000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1467.590000</v>
+        <v>1467.59</v>
       </c>
       <c r="CA6" s="1">
-        <v>-925.740000</v>
+        <v>-925.74</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>12962.084990</v>
+        <v>12962.084989999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>3.600579</v>
+        <v>3.6005790000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>1828.520000</v>
+        <v>1828.52</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1447.250000</v>
+        <v>-1447.25</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>12790.638883</v>
       </c>
       <c r="B7" s="1">
-        <v>3.552955</v>
+        <v>3.5529549999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>896.111000</v>
+        <v>896.11099999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-199.178000</v>
+        <v>-199.178</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>12801.043936</v>
       </c>
       <c r="G7" s="1">
-        <v>3.555846</v>
+        <v>3.5558459999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>914.155000</v>
+        <v>914.15499999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>-169.036000</v>
+        <v>-169.036</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>12811.893910</v>
+        <v>12811.893910000001</v>
       </c>
       <c r="L7" s="1">
         <v>3.558859</v>
       </c>
       <c r="M7" s="1">
-        <v>937.668000</v>
+        <v>937.66800000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.492000</v>
+        <v>-119.492</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>12822.398182</v>
+        <v>12822.398182000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>3.561777</v>
+        <v>3.5617770000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>944.468000</v>
+        <v>944.46799999999996</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.384000</v>
+        <v>-103.384</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>12832.969912</v>
       </c>
       <c r="V7" s="1">
-        <v>3.564714</v>
+        <v>3.5647139999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>951.070000</v>
+        <v>951.07</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.371300</v>
+        <v>-88.371300000000005</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>12843.451868</v>
       </c>
       <c r="AA7" s="1">
-        <v>3.567626</v>
+        <v>3.5676260000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>958.137000</v>
+        <v>958.13699999999994</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.884300</v>
+        <v>-76.884299999999996</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>12853.941293</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.570539</v>
+        <v>3.5705390000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>962.781000</v>
+        <v>962.78099999999995</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.749600</v>
+        <v>-74.749600000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>12864.105777</v>
+        <v>12864.105777000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>3.573363</v>
+        <v>3.5733630000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>969.974000</v>
+        <v>969.97400000000005</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.634200</v>
+        <v>-79.634200000000007</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>12874.768806</v>
       </c>
       <c r="AP7" s="1">
-        <v>3.576325</v>
+        <v>3.5763250000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>978.094000</v>
+        <v>978.09400000000005</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.331800</v>
+        <v>-91.331800000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>12885.843939</v>
       </c>
       <c r="AU7" s="1">
-        <v>3.579401</v>
+        <v>3.5794009999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>987.914000</v>
+        <v>987.91399999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.128000</v>
+        <v>-109.128</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>12896.902742</v>
       </c>
       <c r="AZ7" s="1">
-        <v>3.582473</v>
+        <v>3.5824729999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>996.182000</v>
+        <v>996.18200000000002</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.823000</v>
+        <v>-124.82299999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>12907.909463</v>
       </c>
       <c r="BE7" s="1">
-        <v>3.585530</v>
+        <v>3.5855299999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1034.750000</v>
+        <v>1034.75</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.135000</v>
+        <v>-197.13499999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>12918.757991</v>
       </c>
       <c r="BJ7" s="1">
-        <v>3.588544</v>
+        <v>3.5885440000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1101.060000</v>
+        <v>1101.06</v>
       </c>
       <c r="BL7" s="1">
-        <v>-314.788000</v>
+        <v>-314.78800000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>12929.977961</v>
+        <v>12929.977961000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>3.591661</v>
+        <v>3.5916610000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1208.860000</v>
+        <v>1208.8599999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-501.178000</v>
+        <v>-501.178</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>12940.389025</v>
       </c>
       <c r="BT7" s="1">
-        <v>3.594553</v>
+        <v>3.5945529999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1330.510000</v>
+        <v>1330.51</v>
       </c>
       <c r="BV7" s="1">
-        <v>-706.658000</v>
+        <v>-706.65800000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>12951.113982</v>
+        <v>12951.113982000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>3.597532</v>
+        <v>3.5975320000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1467.610000</v>
+        <v>1467.61</v>
       </c>
       <c r="CA7" s="1">
-        <v>-925.754000</v>
+        <v>-925.75400000000002</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>12962.629597</v>
+        <v>12962.629596999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>3.600730</v>
+        <v>3.60073</v>
       </c>
       <c r="CE7" s="1">
-        <v>1829.980000</v>
+        <v>1829.98</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1447.620000</v>
+        <v>-1447.62</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>12790.985552</v>
       </c>
       <c r="B8" s="1">
-        <v>3.553052</v>
+        <v>3.5530520000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>896.072000</v>
+        <v>896.072</v>
       </c>
       <c r="D8" s="1">
-        <v>-198.895000</v>
+        <v>-198.89500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>12801.690739</v>
@@ -2038,285 +2454,285 @@
         <v>3.556025</v>
       </c>
       <c r="H8" s="1">
-        <v>914.200000</v>
+        <v>914.2</v>
       </c>
       <c r="I8" s="1">
-        <v>-168.774000</v>
+        <v>-168.774</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>12812.275332</v>
+        <v>12812.275331999999</v>
       </c>
       <c r="L8" s="1">
-        <v>3.558965</v>
+        <v>3.5589650000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>937.657000</v>
+        <v>937.65700000000004</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.432000</v>
+        <v>-119.432</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>12822.787046</v>
+        <v>12822.787045999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>3.561885</v>
+        <v>3.5618850000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>944.483000</v>
+        <v>944.48299999999995</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.360000</v>
+        <v>-103.36</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>12833.316616</v>
       </c>
       <c r="V8" s="1">
-        <v>3.564810</v>
+        <v>3.56481</v>
       </c>
       <c r="W8" s="1">
-        <v>950.983000</v>
+        <v>950.98299999999995</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.380200</v>
+        <v>-88.380200000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>12843.797082</v>
+        <v>12843.797081999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>3.567721</v>
+        <v>3.5677210000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>958.067000</v>
+        <v>958.06700000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.926000</v>
+        <v>-76.926000000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>12854.283005</v>
+        <v>12854.283004999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>3.570634</v>
+        <v>3.5706340000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>962.778000</v>
+        <v>962.77800000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.783800</v>
+        <v>-74.783799999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>12864.535312</v>
       </c>
       <c r="AK8" s="1">
-        <v>3.573482</v>
+        <v>3.5734819999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>969.978000</v>
+        <v>969.97799999999995</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.626800</v>
+        <v>-79.626800000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>12875.195825</v>
+        <v>12875.195825000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>3.576443</v>
+        <v>3.5764429999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>978.083000</v>
+        <v>978.08299999999997</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.320400</v>
+        <v>-91.320400000000006</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>12886.145010</v>
+        <v>12886.14501</v>
       </c>
       <c r="AU8" s="1">
         <v>3.579485</v>
       </c>
       <c r="AV8" s="1">
-        <v>987.931000</v>
+        <v>987.93100000000004</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.122000</v>
+        <v>-109.122</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>12897.257875</v>
+        <v>12897.257874999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>3.582572</v>
+        <v>3.5825719999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>996.179000</v>
+        <v>996.17899999999997</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.824000</v>
+        <v>-124.824</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>12908.270054</v>
+        <v>12908.270054000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>3.585631</v>
+        <v>3.5856309999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1034.750000</v>
+        <v>1034.75</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.148000</v>
+        <v>-197.148</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>12919.141863</v>
+        <v>12919.141863000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>3.588651</v>
       </c>
       <c r="BK8" s="1">
-        <v>1101.050000</v>
+        <v>1101.05</v>
       </c>
       <c r="BL8" s="1">
-        <v>-314.781000</v>
+        <v>-314.78100000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>12930.419400</v>
+        <v>12930.419400000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>3.591783</v>
+        <v>3.5917829999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1208.850000</v>
+        <v>1208.8499999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-501.170000</v>
+        <v>-501.17</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>12940.825466</v>
       </c>
       <c r="BT8" s="1">
-        <v>3.594674</v>
+        <v>3.5946739999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1330.460000</v>
+        <v>1330.46</v>
       </c>
       <c r="BV8" s="1">
-        <v>-706.641000</v>
+        <v>-706.64099999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>12951.536076</v>
       </c>
       <c r="BY8" s="1">
-        <v>3.597649</v>
+        <v>3.5976490000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1467.630000</v>
+        <v>1467.63</v>
       </c>
       <c r="CA8" s="1">
-        <v>-925.718000</v>
+        <v>-925.71799999999996</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>12963.168749</v>
       </c>
       <c r="CD8" s="1">
-        <v>3.600880</v>
+        <v>3.6008800000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1829.310000</v>
+        <v>1829.31</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1446.270000</v>
+        <v>-1446.27</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>12791.648241</v>
+        <v>12791.648241000001</v>
       </c>
       <c r="B9" s="1">
-        <v>3.553236</v>
+        <v>3.5532360000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>896.076000</v>
+        <v>896.07600000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-198.946000</v>
+        <v>-198.946</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>12802.076114</v>
       </c>
       <c r="G9" s="1">
-        <v>3.556132</v>
+        <v>3.5561319999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>913.918000</v>
+        <v>913.91800000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-168.584000</v>
+        <v>-168.584</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>12812.621539</v>
       </c>
       <c r="L9" s="1">
-        <v>3.559062</v>
+        <v>3.5590619999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>937.779000</v>
+        <v>937.779</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.571000</v>
+        <v>-119.571</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>12823.134247</v>
@@ -2325,43 +2741,43 @@
         <v>3.561982</v>
       </c>
       <c r="R9" s="1">
-        <v>944.523000</v>
+        <v>944.52300000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.345000</v>
+        <v>-103.345</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>12833.660840</v>
+        <v>12833.66084</v>
       </c>
       <c r="V9" s="1">
-        <v>3.564906</v>
+        <v>3.5649060000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>951.010000</v>
+        <v>951.01</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.372000</v>
+        <v>-88.372</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>12844.225130</v>
+        <v>12844.225130000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>3.567840</v>
+        <v>3.5678399999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>957.880000</v>
+        <v>957.88</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.835100</v>
+        <v>-76.835099999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>12854.715516</v>
@@ -2370,330 +2786,330 @@
         <v>3.570754</v>
       </c>
       <c r="AG9" s="1">
-        <v>962.765000</v>
+        <v>962.76499999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.761800</v>
+        <v>-74.761799999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>12864.814558</v>
       </c>
       <c r="AK9" s="1">
-        <v>3.573560</v>
+        <v>3.5735600000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>969.996000</v>
+        <v>969.99599999999998</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.632700</v>
+        <v>-79.6327</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>12875.492929</v>
       </c>
       <c r="AP9" s="1">
-        <v>3.576526</v>
+        <v>3.5765259999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>978.092000</v>
+        <v>978.09199999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.321200</v>
+        <v>-91.321200000000005</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>12886.513041</v>
       </c>
       <c r="AU9" s="1">
-        <v>3.579587</v>
+        <v>3.5795870000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>987.927000</v>
+        <v>987.92700000000002</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.121000</v>
+        <v>-109.121</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>12897.617979</v>
+        <v>12897.617979000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>3.582672</v>
+        <v>3.5826720000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>996.185000</v>
+        <v>996.18499999999995</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.788000</v>
+        <v>-124.788</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>12908.632628</v>
+        <v>12908.632627999999</v>
       </c>
       <c r="BE9" s="1">
         <v>3.585731</v>
       </c>
       <c r="BF9" s="1">
-        <v>1034.760000</v>
+        <v>1034.76</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.111000</v>
+        <v>-197.11099999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>12919.907685</v>
       </c>
       <c r="BJ9" s="1">
-        <v>3.588863</v>
+        <v>3.5888629999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1101.040000</v>
+        <v>1101.04</v>
       </c>
       <c r="BL9" s="1">
-        <v>-314.830000</v>
+        <v>-314.83</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>12930.798841</v>
       </c>
       <c r="BO9" s="1">
-        <v>3.591889</v>
+        <v>3.5918890000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1208.820000</v>
+        <v>1208.82</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-501.146000</v>
+        <v>-501.14600000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>12941.248057</v>
+        <v>12941.248057000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>3.594791</v>
+        <v>3.5947909999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1330.350000</v>
+        <v>1330.35</v>
       </c>
       <c r="BV9" s="1">
-        <v>-706.567000</v>
+        <v>-706.56700000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>12951.988924</v>
+        <v>12951.988923999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>3.597775</v>
+        <v>3.5977749999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1467.610000</v>
+        <v>1467.61</v>
       </c>
       <c r="CA9" s="1">
-        <v>-925.739000</v>
+        <v>-925.73900000000003</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>12964.018891</v>
       </c>
       <c r="CD9" s="1">
-        <v>3.601116</v>
+        <v>3.6011160000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>1830.320000</v>
+        <v>1830.32</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1447.540000</v>
+        <v>-1447.54</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>12792.007344</v>
       </c>
       <c r="B10" s="1">
-        <v>3.553335</v>
+        <v>3.5533350000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>896.131000</v>
+        <v>896.13099999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>-199.027000</v>
+        <v>-199.02699999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>12802.412385</v>
       </c>
       <c r="G10" s="1">
-        <v>3.556226</v>
+        <v>3.5562260000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>914.251000</v>
+        <v>914.25099999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-168.335000</v>
+        <v>-168.33500000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>12812.967253</v>
+        <v>12812.967253000001</v>
       </c>
       <c r="L10" s="1">
         <v>3.559158</v>
       </c>
       <c r="M10" s="1">
-        <v>937.817000</v>
+        <v>937.81700000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.616000</v>
+        <v>-119.616</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>12823.483429</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.562079</v>
+        <v>3.5620790000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>944.514000</v>
+        <v>944.51400000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.370000</v>
+        <v>-103.37</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>12834.082439</v>
       </c>
       <c r="V10" s="1">
-        <v>3.565023</v>
+        <v>3.5650230000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>950.928000</v>
+        <v>950.928</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.355300</v>
+        <v>-88.3553</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>12844.505865</v>
+        <v>12844.505864999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>3.567918</v>
+        <v>3.5679180000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>958.135000</v>
+        <v>958.13499999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.822800</v>
+        <v>-76.822800000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>12854.996747</v>
+        <v>12854.996746999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>3.570832</v>
+        <v>3.5708319999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>962.796000</v>
+        <v>962.79600000000005</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.799000</v>
+        <v>-74.799000000000007</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>12865.164734</v>
       </c>
       <c r="AK10" s="1">
-        <v>3.573657</v>
+        <v>3.5736569999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>970.002000</v>
+        <v>970.00199999999995</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.645800</v>
+        <v>-79.645799999999994</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>12875.853024</v>
       </c>
       <c r="AP10" s="1">
-        <v>3.576626</v>
+        <v>3.5766260000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>978.081000</v>
+        <v>978.08100000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.333100</v>
+        <v>-91.333100000000002</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>12886.874131</v>
       </c>
       <c r="AU10" s="1">
-        <v>3.579687</v>
+        <v>3.5796869999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>987.935000</v>
+        <v>987.93499999999995</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.133000</v>
+        <v>-109.133</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>12898.335186</v>
       </c>
       <c r="AZ10" s="1">
-        <v>3.582871</v>
+        <v>3.5828709999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>996.205000</v>
+        <v>996.20500000000004</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.793000</v>
+        <v>-124.79300000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>12909.360756</v>
@@ -2702,120 +3118,120 @@
         <v>3.585934</v>
       </c>
       <c r="BF10" s="1">
-        <v>1034.730000</v>
+        <v>1034.73</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.104000</v>
+        <v>-197.10400000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>12920.283157</v>
       </c>
       <c r="BJ10" s="1">
-        <v>3.588968</v>
+        <v>3.5889679999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1101.040000</v>
+        <v>1101.04</v>
       </c>
       <c r="BL10" s="1">
-        <v>-314.796000</v>
+        <v>-314.79599999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>12931.218455</v>
       </c>
       <c r="BO10" s="1">
-        <v>3.592005</v>
+        <v>3.5920049999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1208.850000</v>
+        <v>1208.8499999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-501.179000</v>
+        <v>-501.17899999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>12941.658746</v>
+        <v>12941.658745999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>3.594905</v>
+        <v>3.5949049999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1330.410000</v>
+        <v>1330.41</v>
       </c>
       <c r="BV10" s="1">
-        <v>-706.537000</v>
+        <v>-706.53700000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>12952.754746</v>
+        <v>12952.754746000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>3.597987</v>
+        <v>3.5979869999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1467.500000</v>
+        <v>1467.5</v>
       </c>
       <c r="CA10" s="1">
-        <v>-925.863000</v>
+        <v>-925.86300000000006</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>12964.244075</v>
+        <v>12964.244075000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>3.601179</v>
+        <v>3.6011790000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1830.290000</v>
+        <v>1830.29</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1447.530000</v>
+        <v>-1447.53</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>12792.352559</v>
+        <v>12792.352559000001</v>
       </c>
       <c r="B11" s="1">
-        <v>3.553431</v>
+        <v>3.5534309999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>895.976000</v>
+        <v>895.976</v>
       </c>
       <c r="D11" s="1">
-        <v>-198.936000</v>
+        <v>-198.93600000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>12802.770002</v>
+        <v>12802.770001999999</v>
       </c>
       <c r="G11" s="1">
-        <v>3.556325</v>
+        <v>3.5563250000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>914.061000</v>
+        <v>914.06100000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.825000</v>
+        <v>-168.82499999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>12813.388852</v>
@@ -2824,28 +3240,28 @@
         <v>3.559275</v>
       </c>
       <c r="M11" s="1">
-        <v>937.720000</v>
+        <v>937.72</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.649000</v>
+        <v>-119.649</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>12823.908997</v>
       </c>
       <c r="Q11" s="1">
-        <v>3.562197</v>
+        <v>3.5621969999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>944.520000</v>
+        <v>944.52</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.378000</v>
+        <v>-103.378</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>12834.357442</v>
@@ -2854,300 +3270,300 @@
         <v>3.565099</v>
       </c>
       <c r="W11" s="1">
-        <v>950.998000</v>
+        <v>950.99800000000005</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.398100</v>
+        <v>-88.398099999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>12844.856567</v>
+        <v>12844.856567000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>3.568016</v>
+        <v>3.5680160000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>958.163000</v>
+        <v>958.16300000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.919300</v>
+        <v>-76.919300000000007</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>12855.336011</v>
+        <v>12855.336010999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>3.570927</v>
+        <v>3.5709270000000002</v>
       </c>
       <c r="AG11" s="1">
-        <v>962.721000</v>
+        <v>962.721</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.747500</v>
+        <v>-74.747500000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>12865.508461</v>
+        <v>12865.508460999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>3.573752</v>
+        <v>3.5737519999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>969.969000</v>
+        <v>969.96900000000005</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.642200</v>
+        <v>-79.642200000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>12876.210145</v>
+        <v>12876.210144999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>3.576725</v>
+        <v>3.5767250000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>978.082000</v>
+        <v>978.08199999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.313000</v>
+        <v>-91.313000000000002</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>12887.602761</v>
       </c>
       <c r="AU11" s="1">
-        <v>3.579890</v>
+        <v>3.5798899999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>987.921000</v>
+        <v>987.92100000000005</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.134000</v>
+        <v>-109.134</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>12898.720082</v>
       </c>
       <c r="AZ11" s="1">
-        <v>3.582978</v>
+        <v>3.5829780000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>996.196000</v>
+        <v>996.19600000000003</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.795000</v>
+        <v>-124.795</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>12909.739236</v>
+        <v>12909.739235999999</v>
       </c>
       <c r="BE11" s="1">
         <v>3.586039</v>
       </c>
       <c r="BF11" s="1">
-        <v>1034.770000</v>
+        <v>1034.77</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.132000</v>
+        <v>-197.13200000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>12920.657636</v>
       </c>
       <c r="BJ11" s="1">
-        <v>3.589072</v>
+        <v>3.5890719999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1101.040000</v>
+        <v>1101.04</v>
       </c>
       <c r="BL11" s="1">
-        <v>-314.807000</v>
+        <v>-314.80700000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>12931.922278</v>
       </c>
       <c r="BO11" s="1">
-        <v>3.592201</v>
+        <v>3.5922010000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1208.860000</v>
+        <v>1208.8599999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-501.196000</v>
+        <v>-501.19600000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>12942.115561</v>
+        <v>12942.115561000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>3.595032</v>
+        <v>3.5950319999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>1330.300000</v>
+        <v>1330.3</v>
       </c>
       <c r="BV11" s="1">
-        <v>-706.490000</v>
+        <v>-706.49</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>12952.866346</v>
+        <v>12952.866346000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>3.598018</v>
+        <v>3.5980180000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1467.600000</v>
+        <v>1467.6</v>
       </c>
       <c r="CA11" s="1">
-        <v>-925.728000</v>
+        <v>-925.72799999999995</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>12964.768346</v>
+        <v>12964.768346000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>3.601325</v>
+        <v>3.6013250000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1829.670000</v>
+        <v>1829.67</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1446.600000</v>
+        <v>-1446.6</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>12792.694469</v>
       </c>
       <c r="B12" s="1">
-        <v>3.553526</v>
+        <v>3.5535260000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>896.033000</v>
+        <v>896.03300000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>-198.978000</v>
+        <v>-198.97800000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>12803.196592</v>
       </c>
       <c r="G12" s="1">
-        <v>3.556443</v>
+        <v>3.5564429999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>914.329000</v>
+        <v>914.32899999999995</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.318000</v>
+        <v>-168.31800000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>12813.658179</v>
       </c>
       <c r="L12" s="1">
-        <v>3.559349</v>
+        <v>3.5593490000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>937.733000</v>
+        <v>937.73299999999995</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.769000</v>
+        <v>-119.76900000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>12824.189765</v>
+        <v>12824.189764999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>3.562275</v>
+        <v>3.5622750000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>944.476000</v>
+        <v>944.476</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.390000</v>
+        <v>-103.39</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>12834.701942</v>
       </c>
       <c r="V12" s="1">
-        <v>3.565195</v>
+        <v>3.5651950000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>951.046000</v>
+        <v>951.04600000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.453200</v>
+        <v>-88.453199999999995</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>12845.203737</v>
       </c>
       <c r="AA12" s="1">
-        <v>3.568112</v>
+        <v>3.5681120000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>958.099000</v>
+        <v>958.09900000000005</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.828400</v>
+        <v>-76.828400000000002</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>12855.681723</v>
       </c>
       <c r="AF12" s="1">
-        <v>3.571023</v>
+        <v>3.5710229999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>962.768000</v>
+        <v>962.76800000000003</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.787900</v>
+        <v>-74.787899999999993</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>12866.209805</v>
@@ -3156,285 +3572,285 @@
         <v>3.573947</v>
       </c>
       <c r="AL12" s="1">
-        <v>969.991000</v>
+        <v>969.99099999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.652700</v>
+        <v>-79.652699999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>12876.939262</v>
       </c>
       <c r="AP12" s="1">
-        <v>3.576928</v>
+        <v>3.5769280000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>978.077000</v>
+        <v>978.077</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.308600</v>
+        <v>-91.308599999999998</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>12887.999056</v>
+        <v>12887.999056000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>3.580000</v>
+        <v>3.58</v>
       </c>
       <c r="AV12" s="1">
-        <v>987.916000</v>
+        <v>987.91600000000005</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.129000</v>
+        <v>-109.129</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>12899.101665</v>
       </c>
       <c r="AZ12" s="1">
-        <v>3.583084</v>
+        <v>3.5830839999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>996.165000</v>
+        <v>996.16499999999996</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.839000</v>
+        <v>-124.839</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>12910.410786</v>
       </c>
       <c r="BE12" s="1">
-        <v>3.586225</v>
+        <v>3.5862250000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1034.720000</v>
+        <v>1034.72</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.136000</v>
+        <v>-197.136</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>12921.382292</v>
       </c>
       <c r="BJ12" s="1">
-        <v>3.589273</v>
+        <v>3.5892729999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1101.040000</v>
+        <v>1101.04</v>
       </c>
       <c r="BL12" s="1">
-        <v>-314.827000</v>
+        <v>-314.827</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>12932.052727</v>
       </c>
       <c r="BO12" s="1">
-        <v>3.592237</v>
+        <v>3.5922369999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1208.880000</v>
+        <v>1208.8800000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-501.173000</v>
+        <v>-501.173</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>12942.515372</v>
       </c>
       <c r="BT12" s="1">
-        <v>3.595143</v>
+        <v>3.5951430000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>1330.340000</v>
+        <v>1330.34</v>
       </c>
       <c r="BV12" s="1">
-        <v>-706.392000</v>
+        <v>-706.39200000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>12953.309273</v>
+        <v>12953.309273000001</v>
       </c>
       <c r="BY12" s="1">
         <v>3.598141</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1467.580000</v>
+        <v>1467.58</v>
       </c>
       <c r="CA12" s="1">
-        <v>-925.834000</v>
+        <v>-925.83399999999995</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>12965.284185</v>
       </c>
       <c r="CD12" s="1">
-        <v>3.601468</v>
+        <v>3.6014680000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1830.170000</v>
+        <v>1830.17</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1446.860000</v>
+        <v>-1446.86</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>12793.117854</v>
       </c>
       <c r="B13" s="1">
-        <v>3.553644</v>
+        <v>3.5536439999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>895.946000</v>
+        <v>895.94600000000003</v>
       </c>
       <c r="D13" s="1">
-        <v>-199.045000</v>
+        <v>-199.04499999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>12803.476800</v>
+        <v>12803.4768</v>
       </c>
       <c r="G13" s="1">
         <v>3.556521</v>
       </c>
       <c r="H13" s="1">
-        <v>914.000000</v>
+        <v>914</v>
       </c>
       <c r="I13" s="1">
-        <v>-169.028000</v>
+        <v>-169.02799999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>12814.003395</v>
       </c>
       <c r="L13" s="1">
-        <v>3.559445</v>
+        <v>3.5594450000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>937.735000</v>
+        <v>937.73500000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.751000</v>
+        <v>-119.751</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>12824.540404</v>
+        <v>12824.540403999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>3.562372</v>
+        <v>3.5623719999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>944.447000</v>
+        <v>944.447</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.368000</v>
+        <v>-103.36799999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>12835.046167</v>
       </c>
       <c r="V13" s="1">
-        <v>3.565291</v>
+        <v>3.5652910000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>951.036000</v>
+        <v>951.03599999999994</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.361200</v>
+        <v>-88.361199999999997</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>12845.898135</v>
+        <v>12845.898134999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>3.568305</v>
+        <v>3.5683050000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>958.117000</v>
+        <v>958.11699999999996</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.907600</v>
+        <v>-76.907600000000002</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>12856.368217</v>
+        <v>12856.368216999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>3.571213</v>
+        <v>3.5712130000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>962.795000</v>
+        <v>962.79499999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.764900</v>
+        <v>-74.764899999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>12866.555518</v>
+        <v>12866.555517999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>3.574043</v>
+        <v>3.5740430000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>969.993000</v>
+        <v>969.99300000000005</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.628000</v>
+        <v>-79.628</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>12877.316222</v>
+        <v>12877.316221999999</v>
       </c>
       <c r="AP13" s="1">
         <v>3.577032</v>
       </c>
       <c r="AQ13" s="1">
-        <v>978.070000</v>
+        <v>978.07</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.336500</v>
+        <v>-91.336500000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>12888.363119</v>
@@ -3443,345 +3859,345 @@
         <v>3.580101</v>
       </c>
       <c r="AV13" s="1">
-        <v>987.913000</v>
+        <v>987.91300000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.126000</v>
+        <v>-109.126</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>12899.774576</v>
       </c>
       <c r="AZ13" s="1">
-        <v>3.583271</v>
+        <v>3.5832709999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>996.181000</v>
+        <v>996.18100000000004</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.849000</v>
+        <v>-124.849</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>12910.820979</v>
       </c>
       <c r="BE13" s="1">
-        <v>3.586339</v>
+        <v>3.5863390000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1034.730000</v>
+        <v>1034.73</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.101000</v>
+        <v>-197.101</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>12921.805411</v>
+        <v>12921.805410999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>3.589390</v>
+        <v>3.5893899999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1101.030000</v>
+        <v>1101.03</v>
       </c>
       <c r="BL13" s="1">
-        <v>-314.821000</v>
+        <v>-314.82100000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>12932.466389</v>
+        <v>12932.466388999999</v>
       </c>
       <c r="BO13" s="1">
         <v>3.592352</v>
       </c>
       <c r="BP13" s="1">
-        <v>1208.850000</v>
+        <v>1208.8499999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-501.179000</v>
+        <v>-501.17899999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>12942.927511</v>
       </c>
       <c r="BT13" s="1">
-        <v>3.595258</v>
+        <v>3.5952579999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1330.440000</v>
+        <v>1330.44</v>
       </c>
       <c r="BV13" s="1">
-        <v>-706.296000</v>
+        <v>-706.29600000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>12953.727897</v>
+        <v>12953.727897000001</v>
       </c>
       <c r="BY13" s="1">
         <v>3.598258</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1467.510000</v>
+        <v>1467.51</v>
       </c>
       <c r="CA13" s="1">
-        <v>-925.852000</v>
+        <v>-925.85199999999998</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>12965.836266</v>
       </c>
       <c r="CD13" s="1">
-        <v>3.601621</v>
+        <v>3.6016210000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1829.890000</v>
+        <v>1829.89</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1447.910000</v>
+        <v>-1447.91</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>12793.397100</v>
+        <v>12793.3971</v>
       </c>
       <c r="B14" s="1">
-        <v>3.553721</v>
+        <v>3.5537209999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>895.894000</v>
+        <v>895.89400000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-198.937000</v>
+        <v>-198.93700000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>12803.821023</v>
       </c>
       <c r="G14" s="1">
-        <v>3.556617</v>
+        <v>3.5566170000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>913.917000</v>
+        <v>913.91700000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-168.419000</v>
+        <v>-168.41900000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>12814.347650</v>
+        <v>12814.34765</v>
       </c>
       <c r="L14" s="1">
-        <v>3.559541</v>
+        <v>3.5595409999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>937.779000</v>
+        <v>937.779</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.530000</v>
+        <v>-119.53</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>12824.876691</v>
+        <v>12824.876690999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>3.562466</v>
+        <v>3.5624660000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>944.500000</v>
+        <v>944.5</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.332000</v>
+        <v>-103.33199999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>12835.731637</v>
+        <v>12835.731637000001</v>
       </c>
       <c r="V14" s="1">
-        <v>3.565481</v>
+        <v>3.5654810000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>950.992000</v>
+        <v>950.99199999999996</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.393800</v>
+        <v>-88.393799999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>12846.247319</v>
       </c>
       <c r="AA14" s="1">
-        <v>3.568402</v>
+        <v>3.5684019999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>958.117000</v>
+        <v>958.11699999999996</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.864100</v>
+        <v>-76.864099999999993</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>12856.715385</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.571310</v>
+        <v>3.57131</v>
       </c>
       <c r="AG14" s="1">
-        <v>962.767000</v>
+        <v>962.76700000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.804100</v>
+        <v>-74.804100000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>12866.904214</v>
       </c>
       <c r="AK14" s="1">
-        <v>3.574140</v>
+        <v>3.5741399999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>969.971000</v>
+        <v>969.971</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.636000</v>
+        <v>-79.635999999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>12877.991277</v>
+        <v>12877.991276999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>3.577220</v>
+        <v>3.5772200000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>978.066000</v>
+        <v>978.06600000000003</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.344000</v>
+        <v>-91.343999999999994</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>12889.033710</v>
+        <v>12889.03371</v>
       </c>
       <c r="AU14" s="1">
-        <v>3.580287</v>
+        <v>3.5802870000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>987.918000</v>
+        <v>987.91800000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.162000</v>
+        <v>-109.16200000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>12900.184272</v>
       </c>
       <c r="AZ14" s="1">
-        <v>3.583385</v>
+        <v>3.5833849999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>996.186000</v>
+        <v>996.18600000000004</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.812000</v>
+        <v>-124.812</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>12911.210337</v>
       </c>
       <c r="BE14" s="1">
-        <v>3.586447</v>
+        <v>3.5864470000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1034.750000</v>
+        <v>1034.75</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.137000</v>
+        <v>-197.137</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>12922.210643</v>
       </c>
       <c r="BJ14" s="1">
-        <v>3.589503</v>
+        <v>3.5895030000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1101.030000</v>
+        <v>1101.03</v>
       </c>
       <c r="BL14" s="1">
-        <v>-314.791000</v>
+        <v>-314.791</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>12932.857733</v>
+        <v>12932.857733000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>3.592460</v>
+        <v>3.59246</v>
       </c>
       <c r="BP14" s="1">
-        <v>1208.820000</v>
+        <v>1208.82</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-501.175000</v>
+        <v>-501.17500000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>12943.358077</v>
+        <v>12943.358077000001</v>
       </c>
       <c r="BT14" s="1">
         <v>3.595377</v>
       </c>
       <c r="BU14" s="1">
-        <v>1330.460000</v>
+        <v>1330.46</v>
       </c>
       <c r="BV14" s="1">
-        <v>-706.263000</v>
+        <v>-706.26300000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>12954.152473</v>
@@ -3790,13 +4206,13 @@
         <v>3.598376</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1467.720000</v>
+        <v>1467.72</v>
       </c>
       <c r="CA14" s="1">
-        <v>-925.774000</v>
+        <v>-925.774</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>12966.366952</v>
@@ -3805,60 +4221,60 @@
         <v>3.601769</v>
       </c>
       <c r="CE14" s="1">
-        <v>1829.850000</v>
+        <v>1829.85</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1446.700000</v>
+        <v>-1446.7</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>12793.735374</v>
       </c>
       <c r="B15" s="1">
-        <v>3.553815</v>
+        <v>3.5538150000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>896.000000</v>
+        <v>896</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.909000</v>
+        <v>-198.90899999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>12804.168718</v>
+        <v>12804.168718000001</v>
       </c>
       <c r="G15" s="1">
-        <v>3.556714</v>
+        <v>3.5567139999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>914.429000</v>
+        <v>914.42899999999997</v>
       </c>
       <c r="I15" s="1">
-        <v>-168.410000</v>
+        <v>-168.41</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>12815.041522</v>
       </c>
       <c r="L15" s="1">
-        <v>3.559734</v>
+        <v>3.5597340000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>937.734000</v>
+        <v>937.73400000000004</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.645000</v>
+        <v>-119.645</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>12825.583986</v>
@@ -3867,148 +4283,148 @@
         <v>3.562662</v>
       </c>
       <c r="R15" s="1">
-        <v>944.493000</v>
+        <v>944.49300000000005</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.363000</v>
+        <v>-103.363</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>12836.074868</v>
       </c>
       <c r="V15" s="1">
-        <v>3.565576</v>
+        <v>3.5655760000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>950.980000</v>
+        <v>950.98</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.408800</v>
+        <v>-88.408799999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>12846.596503</v>
+        <v>12846.596503000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>3.568499</v>
+        <v>3.5684990000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>958.083000</v>
+        <v>958.08299999999997</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.878400</v>
+        <v>-76.878399999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>12857.059113</v>
+        <v>12857.059112999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.571405</v>
+        <v>3.5714049999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>962.757000</v>
+        <v>962.75699999999995</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.750700</v>
+        <v>-74.750699999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>12867.574331</v>
       </c>
       <c r="AK15" s="1">
-        <v>3.574326</v>
+        <v>3.5743260000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>969.978000</v>
+        <v>969.97799999999995</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.643100</v>
+        <v>-79.643100000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>12878.397996</v>
       </c>
       <c r="AP15" s="1">
-        <v>3.577333</v>
+        <v>3.5773329999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>978.060000</v>
+        <v>978.06</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.359100</v>
+        <v>-91.359099999999998</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>12889.489080</v>
+        <v>12889.489079999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>3.580414</v>
+        <v>3.5804140000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>987.950000</v>
+        <v>987.95</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.145000</v>
+        <v>-109.145</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>12900.560239</v>
       </c>
       <c r="AZ15" s="1">
-        <v>3.583489</v>
+        <v>3.5834890000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>996.197000</v>
+        <v>996.197</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.804000</v>
+        <v>-124.804</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>12911.591264</v>
+        <v>12911.591264000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>3.586553</v>
+        <v>3.5865529999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1034.730000</v>
+        <v>1034.73</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.152000</v>
+        <v>-197.15199999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>12922.585586</v>
+        <v>12922.585585999999</v>
       </c>
       <c r="BJ15" s="1">
         <v>3.589607</v>
       </c>
       <c r="BK15" s="1">
-        <v>1101.030000</v>
+        <v>1101.03</v>
       </c>
       <c r="BL15" s="1">
-        <v>-314.833000</v>
+        <v>-314.83300000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>12933.280364</v>
@@ -4017,392 +4433,392 @@
         <v>3.592578</v>
       </c>
       <c r="BP15" s="1">
-        <v>1208.840000</v>
+        <v>1208.8399999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-501.194000</v>
+        <v>-501.19400000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>12943.786614</v>
+        <v>12943.786614000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>3.595496</v>
+        <v>3.5954959999999998</v>
       </c>
       <c r="BU15" s="1">
-        <v>1330.510000</v>
+        <v>1330.51</v>
       </c>
       <c r="BV15" s="1">
-        <v>-706.250000</v>
+        <v>-706.25</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>12954.577577</v>
       </c>
       <c r="BY15" s="1">
-        <v>3.598494</v>
+        <v>3.5984940000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1467.570000</v>
+        <v>1467.57</v>
       </c>
       <c r="CA15" s="1">
-        <v>-925.727000</v>
+        <v>-925.72699999999998</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>12966.884281</v>
+        <v>12966.884281000001</v>
       </c>
       <c r="CD15" s="1">
         <v>3.601912</v>
       </c>
       <c r="CE15" s="1">
-        <v>1828.830000</v>
+        <v>1828.83</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1446.810000</v>
+        <v>-1446.81</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>12794.412909</v>
+        <v>12794.412909000001</v>
       </c>
       <c r="B16" s="1">
-        <v>3.554004</v>
+        <v>3.5540039999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>895.988000</v>
+        <v>895.98800000000006</v>
       </c>
       <c r="D16" s="1">
-        <v>-199.017000</v>
+        <v>-199.017</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>12804.856174</v>
       </c>
       <c r="G16" s="1">
-        <v>3.556904</v>
+        <v>3.5569039999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>914.028000</v>
+        <v>914.02800000000002</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.070000</v>
+        <v>-168.07</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>12815.382768</v>
+        <v>12815.382767999999</v>
       </c>
       <c r="L16" s="1">
-        <v>3.559829</v>
+        <v>3.5598290000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>937.778000</v>
+        <v>937.77800000000002</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.558000</v>
+        <v>-119.55800000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>12825.934658</v>
       </c>
       <c r="Q16" s="1">
-        <v>3.562760</v>
+        <v>3.5627599999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>944.515000</v>
+        <v>944.51499999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.400000</v>
+        <v>-103.4</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>12836.418100</v>
+        <v>12836.418100000001</v>
       </c>
       <c r="V16" s="1">
-        <v>3.565672</v>
+        <v>3.5656720000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>950.996000</v>
+        <v>950.99599999999998</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.378200</v>
+        <v>-88.378200000000007</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>12847.255686</v>
       </c>
       <c r="AA16" s="1">
-        <v>3.568682</v>
+        <v>3.5686819999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>958.105000</v>
+        <v>958.10500000000002</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.882600</v>
+        <v>-76.882599999999996</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>12857.717330</v>
+        <v>12857.717329999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>3.571588</v>
+        <v>3.5715880000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>962.789000</v>
+        <v>962.78899999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.768800</v>
+        <v>-74.768799999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>12867.950266</v>
       </c>
       <c r="AK16" s="1">
-        <v>3.574431</v>
+        <v>3.5744310000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>969.991000</v>
+        <v>969.99099999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.644900</v>
+        <v>-79.644900000000007</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>12878.758588</v>
+        <v>12878.758588000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>3.577433</v>
+        <v>3.5774330000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>978.061000</v>
+        <v>978.06100000000004</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.350000</v>
+        <v>-91.35</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>12889.856605</v>
+        <v>12889.856605000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>3.580516</v>
+        <v>3.5805159999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>987.914000</v>
+        <v>987.91399999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.168000</v>
+        <v>-109.16800000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>12900.939679</v>
+        <v>12900.939678999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>3.583594</v>
+        <v>3.5835940000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>996.182000</v>
+        <v>996.18200000000002</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.813000</v>
+        <v>-124.813</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>12912.007904</v>
       </c>
       <c r="BE16" s="1">
-        <v>3.586669</v>
+        <v>3.5866690000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1034.720000</v>
+        <v>1034.72</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.142000</v>
+        <v>-197.142</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>12923.007185</v>
       </c>
       <c r="BJ16" s="1">
-        <v>3.589724</v>
+        <v>3.5897239999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1101.050000</v>
+        <v>1101.05</v>
       </c>
       <c r="BL16" s="1">
-        <v>-314.818000</v>
+        <v>-314.81799999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>12933.677619</v>
       </c>
       <c r="BO16" s="1">
-        <v>3.592688</v>
+        <v>3.5926879999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1208.870000</v>
+        <v>1208.8699999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-501.182000</v>
+        <v>-501.18200000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>12944.201270</v>
+        <v>12944.20127</v>
       </c>
       <c r="BT16" s="1">
-        <v>3.595611</v>
+        <v>3.5956109999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1330.580000</v>
+        <v>1330.58</v>
       </c>
       <c r="BV16" s="1">
-        <v>-706.239000</v>
+        <v>-706.23900000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>12954.992199</v>
       </c>
       <c r="BY16" s="1">
-        <v>3.598609</v>
+        <v>3.5986090000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1467.650000</v>
+        <v>1467.65</v>
       </c>
       <c r="CA16" s="1">
-        <v>-925.868000</v>
+        <v>-925.86800000000005</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>12967.401607</v>
       </c>
       <c r="CD16" s="1">
-        <v>3.602056</v>
+        <v>3.6020560000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1829.130000</v>
+        <v>1829.13</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1447.810000</v>
+        <v>-1447.81</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>12794.759152</v>
+        <v>12794.759152000001</v>
       </c>
       <c r="B17" s="1">
-        <v>3.554100</v>
+        <v>3.5541</v>
       </c>
       <c r="C17" s="1">
-        <v>896.107000</v>
+        <v>896.10699999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.859000</v>
+        <v>-198.85900000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>12805.201885</v>
       </c>
       <c r="G17" s="1">
-        <v>3.557001</v>
+        <v>3.5570010000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>914.428000</v>
+        <v>914.428</v>
       </c>
       <c r="I17" s="1">
-        <v>-168.401000</v>
+        <v>-168.40100000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>12815.735956</v>
       </c>
       <c r="L17" s="1">
-        <v>3.559927</v>
+        <v>3.5599270000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>937.736000</v>
+        <v>937.73599999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.537000</v>
+        <v>-119.53700000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>12826.286817</v>
       </c>
       <c r="Q17" s="1">
-        <v>3.562857</v>
+        <v>3.5628570000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>944.503000</v>
+        <v>944.50300000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.388000</v>
+        <v>-103.38800000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>12837.075301</v>
+        <v>12837.075301000001</v>
       </c>
       <c r="V17" s="1">
-        <v>3.565854</v>
+        <v>3.5658539999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>951.021000</v>
+        <v>951.02099999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.365800</v>
+        <v>-88.365799999999993</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>12847.646037</v>
@@ -4411,88 +4827,88 @@
         <v>3.568791</v>
       </c>
       <c r="AB17" s="1">
-        <v>958.080000</v>
+        <v>958.08</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.894200</v>
+        <v>-76.894199999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>12858.096249</v>
       </c>
       <c r="AF17" s="1">
-        <v>3.571693</v>
+        <v>3.5716929999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>962.750000</v>
+        <v>962.75</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.792000</v>
+        <v>-74.792000000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>12868.301434</v>
+        <v>12868.301434000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>3.574528</v>
+        <v>3.5745279999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>969.979000</v>
+        <v>969.97900000000004</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.647600</v>
+        <v>-79.647599999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>12879.119179</v>
+        <v>12879.119178999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>3.577533</v>
+        <v>3.5775329999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>978.053000</v>
+        <v>978.053</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.328300</v>
+        <v>-91.328299999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>12890.223117</v>
       </c>
       <c r="AU17" s="1">
-        <v>3.580618</v>
+        <v>3.5806179999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>987.940000</v>
+        <v>987.94</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.132000</v>
+        <v>-109.13200000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>12901.372191</v>
       </c>
       <c r="AZ17" s="1">
-        <v>3.583714</v>
+        <v>3.5837140000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>996.193000</v>
+        <v>996.19299999999998</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.778000</v>
+        <v>-124.77800000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>12912.314929</v>
@@ -4501,195 +4917,195 @@
         <v>3.586754</v>
       </c>
       <c r="BF17" s="1">
-        <v>1034.720000</v>
+        <v>1034.72</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.149000</v>
+        <v>-197.149</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>12923.362321</v>
+        <v>12923.362321000001</v>
       </c>
       <c r="BJ17" s="1">
         <v>3.589823</v>
       </c>
       <c r="BK17" s="1">
-        <v>1101.020000</v>
+        <v>1101.02</v>
       </c>
       <c r="BL17" s="1">
-        <v>-314.841000</v>
+        <v>-314.84100000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>12934.097731</v>
       </c>
       <c r="BO17" s="1">
-        <v>3.592805</v>
+        <v>3.5928049999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1208.860000</v>
+        <v>1208.8599999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-501.216000</v>
+        <v>-501.21600000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>12944.627834</v>
+        <v>12944.627834000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>3.595730</v>
+        <v>3.5957300000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1330.630000</v>
+        <v>1330.63</v>
       </c>
       <c r="BV17" s="1">
-        <v>-706.187000</v>
+        <v>-706.18700000000001</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>12955.445047</v>
+        <v>12955.445046999999</v>
       </c>
       <c r="BY17" s="1">
         <v>3.598735</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1467.670000</v>
+        <v>1467.67</v>
       </c>
       <c r="CA17" s="1">
-        <v>-925.775000</v>
+        <v>-925.77499999999998</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>12967.921414</v>
       </c>
       <c r="CD17" s="1">
-        <v>3.602200</v>
+        <v>3.6021999999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>1830.330000</v>
+        <v>1830.33</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1447.530000</v>
+        <v>-1447.53</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>12795.100395</v>
+        <v>12795.100394999999</v>
       </c>
       <c r="B18" s="1">
         <v>3.554195</v>
       </c>
       <c r="C18" s="1">
-        <v>895.896000</v>
+        <v>895.89599999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-199.022000</v>
+        <v>-199.02199999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>12805.553549</v>
       </c>
       <c r="G18" s="1">
-        <v>3.557098</v>
+        <v>3.5570979999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>914.410000</v>
+        <v>914.41</v>
       </c>
       <c r="I18" s="1">
-        <v>-168.766000</v>
+        <v>-168.76599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>12816.384686</v>
+        <v>12816.384685999999</v>
       </c>
       <c r="L18" s="1">
-        <v>3.560107</v>
+        <v>3.5601069999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>937.649000</v>
+        <v>937.649</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.775000</v>
+        <v>-119.77500000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>12827.008993</v>
+        <v>12827.008992999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>3.563058</v>
+        <v>3.5630579999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>944.433000</v>
+        <v>944.43299999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.364000</v>
+        <v>-103.364</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>12837.448813</v>
+        <v>12837.448813000001</v>
       </c>
       <c r="V18" s="1">
-        <v>3.565958</v>
+        <v>3.5659580000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>950.975000</v>
+        <v>950.97500000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.348100</v>
+        <v>-88.348100000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>12847.992741</v>
       </c>
       <c r="AA18" s="1">
-        <v>3.568887</v>
+        <v>3.5688870000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>958.040000</v>
+        <v>958.04</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.839000</v>
+        <v>-76.838999999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>12858.444439</v>
+        <v>12858.444439000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>3.571790</v>
+        <v>3.57179</v>
       </c>
       <c r="AG18" s="1">
-        <v>962.773000</v>
+        <v>962.77300000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.777400</v>
+        <v>-74.7774</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>12868.647642</v>
@@ -4698,43 +5114,43 @@
         <v>3.574624</v>
       </c>
       <c r="AL18" s="1">
-        <v>969.984000</v>
+        <v>969.98400000000004</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.641500</v>
+        <v>-79.641499999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>12879.540283</v>
       </c>
       <c r="AP18" s="1">
-        <v>3.577650</v>
+        <v>3.5776500000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>978.018000</v>
+        <v>978.01800000000003</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.355900</v>
+        <v>-91.355900000000005</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>12890.642733</v>
+        <v>12890.642733000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>3.580734</v>
+        <v>3.5807340000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>987.939000</v>
+        <v>987.93899999999996</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.138000</v>
+        <v>-109.13800000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>12901.656399</v>
@@ -4743,300 +5159,300 @@
         <v>3.583793</v>
       </c>
       <c r="BA18" s="1">
-        <v>996.200000</v>
+        <v>996.2</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.814000</v>
+        <v>-124.81399999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>12912.675023</v>
       </c>
       <c r="BE18" s="1">
-        <v>3.586854</v>
+        <v>3.5868540000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1034.740000</v>
+        <v>1034.74</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.166000</v>
+        <v>-197.166</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>12923.734817</v>
       </c>
       <c r="BJ18" s="1">
-        <v>3.589926</v>
+        <v>3.5899260000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1101.040000</v>
+        <v>1101.04</v>
       </c>
       <c r="BL18" s="1">
-        <v>-314.835000</v>
+        <v>-314.83499999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>12934.496019</v>
       </c>
       <c r="BO18" s="1">
-        <v>3.592916</v>
+        <v>3.5929160000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1208.860000</v>
+        <v>1208.8599999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-501.193000</v>
+        <v>-501.19299999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>12945.054392</v>
       </c>
       <c r="BT18" s="1">
-        <v>3.595848</v>
+        <v>3.5958480000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>1330.720000</v>
+        <v>1330.72</v>
       </c>
       <c r="BV18" s="1">
-        <v>-706.181000</v>
+        <v>-706.18100000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>12955.895445</v>
       </c>
       <c r="BY18" s="1">
-        <v>3.598860</v>
+        <v>3.5988600000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1467.540000</v>
+        <v>1467.54</v>
       </c>
       <c r="CA18" s="1">
-        <v>-925.728000</v>
+        <v>-925.72799999999995</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>12968.436788</v>
+        <v>12968.436788000001</v>
       </c>
       <c r="CD18" s="1">
         <v>3.602344</v>
       </c>
       <c r="CE18" s="1">
-        <v>1829.850000</v>
+        <v>1829.85</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1446.350000</v>
+        <v>-1446.35</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>12795.765499</v>
+        <v>12795.765498999999</v>
       </c>
       <c r="B19" s="1">
         <v>3.554379</v>
       </c>
       <c r="C19" s="1">
-        <v>896.081000</v>
+        <v>896.08100000000002</v>
       </c>
       <c r="D19" s="1">
-        <v>-199.132000</v>
+        <v>-199.13200000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>12806.211778</v>
+        <v>12806.211778000001</v>
       </c>
       <c r="G19" s="1">
-        <v>3.557281</v>
+        <v>3.5572810000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>914.339000</v>
+        <v>914.33900000000006</v>
       </c>
       <c r="I19" s="1">
-        <v>-168.421000</v>
+        <v>-168.42099999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>12816.771070</v>
+        <v>12816.771070000001</v>
       </c>
       <c r="L19" s="1">
-        <v>3.560214</v>
+        <v>3.5602140000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>937.634000</v>
+        <v>937.63400000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.602000</v>
+        <v>-119.602</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>12827.329408</v>
       </c>
       <c r="Q19" s="1">
-        <v>3.563147</v>
+        <v>3.5631469999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>944.462000</v>
+        <v>944.46199999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.357000</v>
+        <v>-103.357</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>12837.805410</v>
+        <v>12837.805410000001</v>
       </c>
       <c r="V19" s="1">
-        <v>3.566057</v>
+        <v>3.5660569999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>950.965000</v>
+        <v>950.96500000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.365100</v>
+        <v>-88.365099999999998</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>12848.340438</v>
+        <v>12848.340437999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>3.568983</v>
+        <v>3.5689829999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>958.065000</v>
+        <v>958.06500000000005</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.893700</v>
+        <v>-76.893699999999995</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>12858.789692</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.571886</v>
+        <v>3.5718860000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>962.770000</v>
+        <v>962.77</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.792700</v>
+        <v>-74.792699999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>12869.067256</v>
       </c>
       <c r="AK19" s="1">
-        <v>3.574741</v>
+        <v>3.5747409999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>969.967000</v>
+        <v>969.96699999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.627800</v>
+        <v>-79.627799999999993</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>12879.837423</v>
+        <v>12879.837423000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>3.577733</v>
+        <v>3.5777329999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>978.029000</v>
+        <v>978.029</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.327100</v>
+        <v>-91.327100000000002</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>12890.950289</v>
       </c>
       <c r="AU19" s="1">
-        <v>3.580820</v>
+        <v>3.5808200000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>987.909000</v>
+        <v>987.90899999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.144000</v>
+        <v>-109.14400000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>12902.015501</v>
       </c>
       <c r="AZ19" s="1">
-        <v>3.583893</v>
+        <v>3.5838930000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>996.220000</v>
+        <v>996.22</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.797000</v>
+        <v>-124.797</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>12913.037630</v>
+        <v>12913.037630000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>3.586955</v>
+        <v>3.5869550000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1034.750000</v>
+        <v>1034.75</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.160000</v>
+        <v>-197.16</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>12924.112800</v>
+        <v>12924.112800000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>3.590031</v>
+        <v>3.5900310000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1101.050000</v>
+        <v>1101.05</v>
       </c>
       <c r="BL19" s="1">
-        <v>-314.831000</v>
+        <v>-314.83100000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>12934.916168</v>
@@ -5045,28 +5461,28 @@
         <v>3.593032</v>
       </c>
       <c r="BP19" s="1">
-        <v>1208.870000</v>
+        <v>1208.8699999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-501.130000</v>
+        <v>-501.13</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>12945.468051</v>
       </c>
       <c r="BT19" s="1">
-        <v>3.595963</v>
+        <v>3.5959629999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1330.790000</v>
+        <v>1330.79</v>
       </c>
       <c r="BV19" s="1">
-        <v>-706.216000</v>
+        <v>-706.21600000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>12956.351271</v>
@@ -5075,150 +5491,150 @@
         <v>3.598986</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1467.480000</v>
+        <v>1467.48</v>
       </c>
       <c r="CA19" s="1">
-        <v>-925.781000</v>
+        <v>-925.78099999999995</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>12968.956565</v>
       </c>
       <c r="CD19" s="1">
-        <v>3.602488</v>
+        <v>3.6024880000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1830.140000</v>
+        <v>1830.14</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1447.020000</v>
+        <v>-1447.02</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>12796.125625</v>
+        <v>12796.125625000001</v>
       </c>
       <c r="B20" s="1">
-        <v>3.554479</v>
+        <v>3.5544790000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>895.994000</v>
+        <v>895.99400000000003</v>
       </c>
       <c r="D20" s="1">
-        <v>-199.037000</v>
+        <v>-199.03700000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>12806.584268</v>
+        <v>12806.584268000001</v>
       </c>
       <c r="G20" s="1">
         <v>3.557385</v>
       </c>
       <c r="H20" s="1">
-        <v>914.195000</v>
+        <v>914.19500000000005</v>
       </c>
       <c r="I20" s="1">
-        <v>-168.784000</v>
+        <v>-168.78399999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>12817.114798</v>
+        <v>12817.114798000001</v>
       </c>
       <c r="L20" s="1">
-        <v>3.560310</v>
+        <v>3.5603099999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>937.574000</v>
+        <v>937.57399999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.484000</v>
+        <v>-119.48399999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>12827.666688</v>
+        <v>12827.666687999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>3.563241</v>
+        <v>3.5632410000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>944.479000</v>
+        <v>944.47900000000004</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.348000</v>
+        <v>-103.348</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>12838.144673</v>
+        <v>12838.144673000001</v>
       </c>
       <c r="V20" s="1">
-        <v>3.566151</v>
+        <v>3.5661510000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>951.044000</v>
+        <v>951.04399999999998</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.336100</v>
+        <v>-88.336100000000002</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>12848.766500</v>
+        <v>12848.7665</v>
       </c>
       <c r="AA20" s="1">
         <v>3.569102</v>
       </c>
       <c r="AB20" s="1">
-        <v>958.103000</v>
+        <v>958.10299999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.911000</v>
+        <v>-76.911000000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>12859.238589</v>
+        <v>12859.238589000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>3.572011</v>
+        <v>3.5720109999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>962.762000</v>
+        <v>962.76199999999994</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.834200</v>
+        <v>-74.834199999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>12869.357416</v>
+        <v>12869.357416000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>3.574822</v>
+        <v>3.5748220000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>969.975000</v>
+        <v>969.97500000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.640000</v>
+        <v>-79.64</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>12880.199003</v>
@@ -5227,28 +5643,28 @@
         <v>3.577833</v>
       </c>
       <c r="AQ20" s="1">
-        <v>978.044000</v>
+        <v>978.04399999999998</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.322800</v>
+        <v>-91.322800000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>12891.316300</v>
+        <v>12891.3163</v>
       </c>
       <c r="AU20" s="1">
         <v>3.580921</v>
       </c>
       <c r="AV20" s="1">
-        <v>987.932000</v>
+        <v>987.93200000000002</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.144000</v>
+        <v>-109.14400000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>12902.375102</v>
@@ -5257,285 +5673,285 @@
         <v>3.583993</v>
       </c>
       <c r="BA20" s="1">
-        <v>996.193000</v>
+        <v>996.19299999999998</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.802000</v>
+        <v>-124.80200000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>12913.755833</v>
+        <v>12913.755832999999</v>
       </c>
       <c r="BE20" s="1">
         <v>3.587154</v>
       </c>
       <c r="BF20" s="1">
-        <v>1034.750000</v>
+        <v>1034.75</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.151000</v>
+        <v>-197.15100000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>12924.864207</v>
+        <v>12924.864207000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>3.590240</v>
+        <v>3.5902400000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1101.060000</v>
+        <v>1101.06</v>
       </c>
       <c r="BL20" s="1">
-        <v>-314.835000</v>
+        <v>-314.83499999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>12935.310450</v>
+        <v>12935.310450000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>3.593142</v>
+        <v>3.5931419999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1208.860000</v>
+        <v>1208.8599999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-501.170000</v>
+        <v>-501.17</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>12945.897440</v>
+        <v>12945.897440000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>3.596083</v>
+        <v>3.5960830000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1330.820000</v>
+        <v>1330.82</v>
       </c>
       <c r="BV20" s="1">
-        <v>-706.293000</v>
+        <v>-706.29300000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>12956.803625</v>
       </c>
       <c r="BY20" s="1">
-        <v>3.599112</v>
+        <v>3.5991119999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1467.560000</v>
+        <v>1467.56</v>
       </c>
       <c r="CA20" s="1">
-        <v>-925.810000</v>
+        <v>-925.81</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>12969.819109</v>
       </c>
       <c r="CD20" s="1">
-        <v>3.602728</v>
+        <v>3.6027279999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1830.040000</v>
+        <v>1830.04</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1447.800000</v>
+        <v>-1447.8</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>12796.474282</v>
+        <v>12796.474281999999</v>
       </c>
       <c r="B21" s="1">
         <v>3.554576</v>
       </c>
       <c r="C21" s="1">
-        <v>896.017000</v>
+        <v>896.01700000000005</v>
       </c>
       <c r="D21" s="1">
-        <v>-198.923000</v>
+        <v>-198.923</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>12806.929451</v>
       </c>
       <c r="G21" s="1">
-        <v>3.557480</v>
+        <v>3.55748</v>
       </c>
       <c r="H21" s="1">
-        <v>914.151000</v>
+        <v>914.15099999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>-168.972000</v>
+        <v>-168.97200000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>12817.461005</v>
+        <v>12817.461004999999</v>
       </c>
       <c r="L21" s="1">
         <v>3.560406</v>
       </c>
       <c r="M21" s="1">
-        <v>937.756000</v>
+        <v>937.75599999999997</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.682000</v>
+        <v>-119.682</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>12828.097215</v>
       </c>
       <c r="Q21" s="1">
-        <v>3.563360</v>
+        <v>3.5633599999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>944.516000</v>
+        <v>944.51599999999996</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.380000</v>
+        <v>-103.38</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>12838.570242</v>
       </c>
       <c r="V21" s="1">
-        <v>3.566270</v>
+        <v>3.5662699999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>951.064000</v>
+        <v>951.06399999999996</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.403700</v>
+        <v>-88.403700000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>12849.048227</v>
+        <v>12849.048226999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>3.569180</v>
+        <v>3.5691799999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>958.134000</v>
+        <v>958.13400000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.883100</v>
+        <v>-76.883099999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>12859.490501</v>
       </c>
       <c r="AF21" s="1">
-        <v>3.572081</v>
+        <v>3.5720809999999998</v>
       </c>
       <c r="AG21" s="1">
-        <v>962.731000</v>
+        <v>962.73099999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.779300</v>
+        <v>-74.779300000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>12869.706104</v>
+        <v>12869.706104000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>3.574918</v>
+        <v>3.5749179999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>969.981000</v>
+        <v>969.98099999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.626800</v>
+        <v>-79.626800000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>12880.561049</v>
       </c>
       <c r="AP21" s="1">
-        <v>3.577934</v>
+        <v>3.5779339999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>978.047000</v>
+        <v>978.04700000000003</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.342800</v>
+        <v>-91.342799999999997</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>12891.680363</v>
+        <v>12891.680362999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>3.581022</v>
+        <v>3.5810219999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>987.933000</v>
+        <v>987.93299999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.167000</v>
+        <v>-109.167</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>12903.090881</v>
       </c>
       <c r="AZ21" s="1">
-        <v>3.584192</v>
+        <v>3.5841919999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>996.194000</v>
+        <v>996.19399999999996</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.796000</v>
+        <v>-124.79600000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>12914.146189</v>
+        <v>12914.146188999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>3.587263</v>
+        <v>3.5872630000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1034.730000</v>
+        <v>1034.73</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.164000</v>
+        <v>-197.16399999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>12925.238191</v>
@@ -5544,120 +5960,120 @@
         <v>3.590344</v>
       </c>
       <c r="BK21" s="1">
-        <v>1101.070000</v>
+        <v>1101.07</v>
       </c>
       <c r="BL21" s="1">
-        <v>-314.826000</v>
+        <v>-314.82600000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>12935.731751</v>
+        <v>12935.731750999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>3.593259</v>
+        <v>3.5932590000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1208.870000</v>
+        <v>1208.8699999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-501.189000</v>
+        <v>-501.18900000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>12946.637090</v>
+        <v>12946.63709</v>
       </c>
       <c r="BT21" s="1">
-        <v>3.596288</v>
+        <v>3.5962879999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1330.910000</v>
+        <v>1330.91</v>
       </c>
       <c r="BV21" s="1">
-        <v>-706.367000</v>
+        <v>-706.36699999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>12957.533700</v>
+        <v>12957.5337</v>
       </c>
       <c r="BY21" s="1">
-        <v>3.599315</v>
+        <v>3.5993149999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1467.620000</v>
+        <v>1467.62</v>
       </c>
       <c r="CA21" s="1">
-        <v>-925.788000</v>
+        <v>-925.78800000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>12970.038339</v>
+        <v>12970.038339000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>3.602788</v>
+        <v>3.6027879999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1829.900000</v>
+        <v>1829.9</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1446.540000</v>
+        <v>-1446.54</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>12796.815064</v>
       </c>
       <c r="B22" s="1">
-        <v>3.554671</v>
+        <v>3.5546709999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>895.928000</v>
+        <v>895.928</v>
       </c>
       <c r="D22" s="1">
-        <v>-198.966000</v>
+        <v>-198.96600000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>12807.277675</v>
+        <v>12807.277674999999</v>
       </c>
       <c r="G22" s="1">
-        <v>3.557577</v>
+        <v>3.5575770000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>914.164000</v>
+        <v>914.16399999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-168.581000</v>
+        <v>-168.58099999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>12817.894056</v>
+        <v>12817.894055999999</v>
       </c>
       <c r="L22" s="1">
-        <v>3.560526</v>
+        <v>3.5605259999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>937.709000</v>
+        <v>937.70899999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.696000</v>
+        <v>-119.696</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>12828.372991</v>
@@ -5666,178 +6082,178 @@
         <v>3.563437</v>
       </c>
       <c r="R22" s="1">
-        <v>944.488000</v>
+        <v>944.48800000000006</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.390000</v>
+        <v>-103.39</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>12838.844530</v>
+        <v>12838.84453</v>
       </c>
       <c r="V22" s="1">
-        <v>3.566346</v>
+        <v>3.5663459999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>951.012000</v>
+        <v>951.01199999999994</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.353100</v>
+        <v>-88.353099999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>12849.398403</v>
+        <v>12849.398402999999</v>
       </c>
       <c r="AA22" s="1">
         <v>3.569277</v>
       </c>
       <c r="AB22" s="1">
-        <v>958.129000</v>
+        <v>958.12900000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.926200</v>
+        <v>-76.926199999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>12859.846133</v>
+        <v>12859.846132999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>3.572179</v>
+        <v>3.5721790000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>962.796000</v>
+        <v>962.79600000000005</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.773600</v>
+        <v>-74.773600000000002</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>12870.055785</v>
       </c>
       <c r="AK22" s="1">
-        <v>3.575015</v>
+        <v>3.5750150000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>969.943000</v>
+        <v>969.94299999999998</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.638600</v>
+        <v>-79.638599999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>12881.277800</v>
+        <v>12881.2778</v>
       </c>
       <c r="AP22" s="1">
-        <v>3.578133</v>
+        <v>3.5781329999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>978.024000</v>
+        <v>978.024</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.354200</v>
+        <v>-91.354200000000006</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>12892.410511</v>
       </c>
       <c r="AU22" s="1">
-        <v>3.581225</v>
+        <v>3.5812249999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>987.913000</v>
+        <v>987.91300000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.142000</v>
+        <v>-109.142</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>12903.450924</v>
+        <v>12903.450924000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>3.584292</v>
       </c>
       <c r="BA22" s="1">
-        <v>996.198000</v>
+        <v>996.19799999999998</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.802000</v>
+        <v>-124.80200000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>12914.525102</v>
       </c>
       <c r="BE22" s="1">
-        <v>3.587368</v>
+        <v>3.5873680000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1034.720000</v>
+        <v>1034.72</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.149000</v>
+        <v>-197.149</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>12925.933094</v>
       </c>
       <c r="BJ22" s="1">
-        <v>3.590537</v>
+        <v>3.5905369999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1101.060000</v>
+        <v>1101.06</v>
       </c>
       <c r="BL22" s="1">
-        <v>-314.826000</v>
+        <v>-314.82600000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>12936.438352</v>
+        <v>12936.438351999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>3.593455</v>
+        <v>3.5934550000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1208.840000</v>
+        <v>1208.8399999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-501.147000</v>
+        <v>-501.14699999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>12946.770018</v>
+        <v>12946.770017999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>3.596325</v>
+        <v>3.5963250000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1330.930000</v>
+        <v>1330.93</v>
       </c>
       <c r="BV22" s="1">
-        <v>-706.469000</v>
+        <v>-706.46900000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>12957.699365</v>
@@ -5846,45 +6262,45 @@
         <v>3.599361</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1467.650000</v>
+        <v>1467.65</v>
       </c>
       <c r="CA22" s="1">
-        <v>-925.871000</v>
+        <v>-925.87099999999998</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>12970.556163</v>
+        <v>12970.556162999999</v>
       </c>
       <c r="CD22" s="1">
         <v>3.602932</v>
       </c>
       <c r="CE22" s="1">
-        <v>1828.610000</v>
+        <v>1828.61</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1446.880000</v>
+        <v>-1446.88</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>12797.236164</v>
       </c>
       <c r="B23" s="1">
-        <v>3.554788</v>
+        <v>3.5547879999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>896.166000</v>
+        <v>896.16600000000005</v>
       </c>
       <c r="D23" s="1">
-        <v>-199.045000</v>
+        <v>-199.04499999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>12807.706219</v>
@@ -5893,118 +6309,118 @@
         <v>3.557696</v>
       </c>
       <c r="H23" s="1">
-        <v>914.769000</v>
+        <v>914.76900000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-168.830000</v>
+        <v>-168.83</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>12818.174748</v>
+        <v>12818.174747999999</v>
       </c>
       <c r="L23" s="1">
-        <v>3.560604</v>
+        <v>3.5606040000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>937.740000</v>
+        <v>937.74</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.531000</v>
+        <v>-119.53100000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>12828.722174</v>
       </c>
       <c r="Q23" s="1">
-        <v>3.563534</v>
+        <v>3.5635340000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>944.486000</v>
+        <v>944.48599999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.407000</v>
+        <v>-103.407</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>12839.187264</v>
       </c>
       <c r="V23" s="1">
-        <v>3.566441</v>
+        <v>3.5664410000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>950.964000</v>
+        <v>950.96400000000006</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.302400</v>
+        <v>-88.302400000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>12849.746099</v>
       </c>
       <c r="AA23" s="1">
-        <v>3.569374</v>
+        <v>3.5693739999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>958.164000</v>
+        <v>958.16399999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.885200</v>
+        <v>-76.885199999999998</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>12860.406613</v>
+        <v>12860.406612999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>3.572335</v>
+        <v>3.5723349999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>962.786000</v>
+        <v>962.78599999999994</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.777200</v>
+        <v>-74.777199999999993</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>12870.753160</v>
+        <v>12870.75316</v>
       </c>
       <c r="AK23" s="1">
-        <v>3.575209</v>
+        <v>3.5752090000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>969.984000</v>
+        <v>969.98400000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.631500</v>
+        <v>-79.631500000000003</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>12881.642330</v>
+        <v>12881.642330000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>3.578234</v>
+        <v>3.5782340000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>978.028000</v>
+        <v>978.02800000000002</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.352000</v>
+        <v>-91.352000000000004</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>12892.803802</v>
@@ -6013,28 +6429,28 @@
         <v>3.581334</v>
       </c>
       <c r="AV23" s="1">
-        <v>987.917000</v>
+        <v>987.91700000000003</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.147000</v>
+        <v>-109.14700000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>12903.808075</v>
+        <v>12903.808075000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>3.584391</v>
+        <v>3.5843910000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>996.192000</v>
+        <v>996.19200000000001</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.808000</v>
+        <v>-124.80800000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>12915.207596</v>
@@ -6043,105 +6459,105 @@
         <v>3.587558</v>
       </c>
       <c r="BF23" s="1">
-        <v>1034.710000</v>
+        <v>1034.71</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.145000</v>
+        <v>-197.14500000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>12926.363613</v>
       </c>
       <c r="BJ23" s="1">
-        <v>3.590657</v>
+        <v>3.5906570000000002</v>
       </c>
       <c r="BK23" s="1">
-        <v>1101.020000</v>
+        <v>1101.02</v>
       </c>
       <c r="BL23" s="1">
-        <v>-314.839000</v>
+        <v>-314.839</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>12936.567840</v>
+        <v>12936.56784</v>
       </c>
       <c r="BO23" s="1">
-        <v>3.593491</v>
+        <v>3.5934910000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1208.860000</v>
+        <v>1208.8599999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-501.177000</v>
+        <v>-501.17700000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>12947.183713</v>
       </c>
       <c r="BT23" s="1">
-        <v>3.596440</v>
+        <v>3.5964399999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1330.900000</v>
+        <v>1330.9</v>
       </c>
       <c r="BV23" s="1">
-        <v>-706.536000</v>
+        <v>-706.53599999999994</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>12958.125427</v>
+        <v>12958.125427000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>3.599479</v>
+        <v>3.5994790000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1467.690000</v>
+        <v>1467.69</v>
       </c>
       <c r="CA23" s="1">
-        <v>-925.867000</v>
+        <v>-925.86699999999996</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>12971.074019</v>
       </c>
       <c r="CD23" s="1">
-        <v>3.603076</v>
+        <v>3.6030760000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1828.880000</v>
+        <v>1828.88</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1448.050000</v>
+        <v>-1448.05</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>12797.516376</v>
       </c>
       <c r="B24" s="1">
-        <v>3.554866</v>
+        <v>3.5548660000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>895.901000</v>
+        <v>895.90099999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-199.051000</v>
+        <v>-199.05099999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>12807.991881</v>
@@ -6150,345 +6566,345 @@
         <v>3.557776</v>
       </c>
       <c r="H24" s="1">
-        <v>913.939000</v>
+        <v>913.93899999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.764000</v>
+        <v>-168.76400000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>12818.519467</v>
       </c>
       <c r="L24" s="1">
-        <v>3.560700</v>
+        <v>3.5607000000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>937.689000</v>
+        <v>937.68899999999996</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.631000</v>
+        <v>-119.631</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>12829.069902</v>
+        <v>12829.069901999999</v>
       </c>
       <c r="Q24" s="1">
         <v>3.563631</v>
       </c>
       <c r="R24" s="1">
-        <v>944.424000</v>
+        <v>944.42399999999998</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.349000</v>
+        <v>-103.349</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>12839.531984</v>
+        <v>12839.531983999999</v>
       </c>
       <c r="V24" s="1">
-        <v>3.566537</v>
+        <v>3.5665369999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>950.981000</v>
+        <v>950.98099999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.399300</v>
+        <v>-88.399299999999997</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>12850.442482</v>
       </c>
       <c r="AA24" s="1">
-        <v>3.569567</v>
+        <v>3.5695670000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>958.055000</v>
+        <v>958.05499999999995</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.886400</v>
+        <v>-76.886399999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>12860.532597</v>
+        <v>12860.532596999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>3.572370</v>
+        <v>3.5723699999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>962.788000</v>
+        <v>962.78800000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.797900</v>
+        <v>-74.797899999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>12871.102846</v>
       </c>
       <c r="AK24" s="1">
-        <v>3.575306</v>
+        <v>3.5753059999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>969.960000</v>
+        <v>969.96</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.631200</v>
+        <v>-79.631200000000007</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>12882.000440</v>
+        <v>12882.00044</v>
       </c>
       <c r="AP24" s="1">
-        <v>3.578333</v>
+        <v>3.5783330000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>977.995000</v>
+        <v>977.995</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.394700</v>
+        <v>-91.3947</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>12893.485527</v>
+        <v>12893.485527000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>3.581524</v>
+        <v>3.5815239999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>987.899000</v>
+        <v>987.899</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.152000</v>
+        <v>-109.152</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>12904.480650</v>
+        <v>12904.48065</v>
       </c>
       <c r="AZ24" s="1">
         <v>3.584578</v>
       </c>
       <c r="BA24" s="1">
-        <v>996.204000</v>
+        <v>996.20399999999995</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.785000</v>
+        <v>-124.785</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>12915.609851</v>
+        <v>12915.609850999999</v>
       </c>
       <c r="BE24" s="1">
         <v>3.587669</v>
       </c>
       <c r="BF24" s="1">
-        <v>1034.720000</v>
+        <v>1034.72</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.143000</v>
+        <v>-197.143</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>12926.740573</v>
+        <v>12926.740572999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>3.590761</v>
+        <v>3.5907610000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1101.040000</v>
+        <v>1101.04</v>
       </c>
       <c r="BL24" s="1">
-        <v>-314.820000</v>
+        <v>-314.82</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>12936.977008</v>
       </c>
       <c r="BO24" s="1">
-        <v>3.593605</v>
+        <v>3.5936050000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1208.870000</v>
+        <v>1208.8699999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-501.195000</v>
+        <v>-501.19499999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>12947.611233</v>
       </c>
       <c r="BT24" s="1">
-        <v>3.596559</v>
+        <v>3.5965590000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1330.990000</v>
+        <v>1330.99</v>
       </c>
       <c r="BV24" s="1">
-        <v>-706.608000</v>
+        <v>-706.60799999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>12958.644274</v>
       </c>
       <c r="BY24" s="1">
-        <v>3.599623</v>
+        <v>3.5996229999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1467.540000</v>
+        <v>1467.54</v>
       </c>
       <c r="CA24" s="1">
-        <v>-925.806000</v>
+        <v>-925.80600000000004</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>12971.594289</v>
+        <v>12971.594289000001</v>
       </c>
       <c r="CD24" s="1">
         <v>3.603221</v>
       </c>
       <c r="CE24" s="1">
-        <v>1828.660000</v>
+        <v>1828.66</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1447.660000</v>
+        <v>-1447.66</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>12797.856631</v>
+        <v>12797.856631000001</v>
       </c>
       <c r="B25" s="1">
-        <v>3.554960</v>
+        <v>3.5549599999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>896.040000</v>
+        <v>896.04</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.975000</v>
+        <v>-198.97499999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>12808.336633</v>
+        <v>12808.336633000001</v>
       </c>
       <c r="G25" s="1">
         <v>3.557871</v>
       </c>
       <c r="H25" s="1">
-        <v>913.865000</v>
+        <v>913.86500000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-168.622000</v>
+        <v>-168.62200000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>12818.863723</v>
       </c>
       <c r="L25" s="1">
-        <v>3.560795</v>
+        <v>3.5607950000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>937.798000</v>
+        <v>937.798</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.795000</v>
+        <v>-119.795</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>12829.766748</v>
       </c>
       <c r="Q25" s="1">
-        <v>3.563824</v>
+        <v>3.5638239999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>944.453000</v>
+        <v>944.45299999999997</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.333000</v>
+        <v>-103.333</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>12840.219935</v>
+        <v>12840.219934999999</v>
       </c>
       <c r="V25" s="1">
-        <v>3.566728</v>
+        <v>3.5667279999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>950.917000</v>
+        <v>950.91700000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.413500</v>
+        <v>-88.413499999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>12850.794145</v>
       </c>
       <c r="AA25" s="1">
-        <v>3.569665</v>
+        <v>3.5696650000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>958.087000</v>
+        <v>958.08699999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.848600</v>
+        <v>-76.848600000000005</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>12860.865908</v>
       </c>
       <c r="AF25" s="1">
-        <v>3.572463</v>
+        <v>3.5724629999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>962.819000</v>
+        <v>962.81899999999996</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.791100</v>
+        <v>-74.7911</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>12871.445612</v>
@@ -6497,118 +6913,118 @@
         <v>3.575402</v>
       </c>
       <c r="AL25" s="1">
-        <v>969.972000</v>
+        <v>969.97199999999998</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.654200</v>
+        <v>-79.654200000000003</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>12882.675495</v>
       </c>
       <c r="AP25" s="1">
-        <v>3.578521</v>
+        <v>3.5785209999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>977.991000</v>
+        <v>977.99099999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.396500</v>
+        <v>-91.396500000000003</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>12893.925785</v>
+        <v>12893.925784999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>3.581646</v>
+        <v>3.5816460000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>987.918000</v>
+        <v>987.91800000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.141000</v>
+        <v>-109.14100000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>12904.884472</v>
       </c>
       <c r="AZ25" s="1">
-        <v>3.584690</v>
+        <v>3.5846900000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>996.213000</v>
+        <v>996.21299999999997</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.808000</v>
+        <v>-124.80800000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>12916.001232</v>
+        <v>12916.001232000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>3.587778</v>
+        <v>3.5877780000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1034.730000</v>
+        <v>1034.73</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.158000</v>
+        <v>-197.15799999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>12927.117533</v>
+        <v>12927.117533000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>3.590866</v>
+        <v>3.5908660000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1101.040000</v>
+        <v>1101.04</v>
       </c>
       <c r="BL25" s="1">
-        <v>-314.802000</v>
+        <v>-314.80200000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>12937.371822</v>
+        <v>12937.371821999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>3.593714</v>
+        <v>3.5937139999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1208.820000</v>
+        <v>1208.82</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-501.183000</v>
+        <v>-501.18299999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>12948.032833</v>
+        <v>12948.032832999999</v>
       </c>
       <c r="BT25" s="1">
         <v>3.596676</v>
       </c>
       <c r="BU25" s="1">
-        <v>1330.910000</v>
+        <v>1330.91</v>
       </c>
       <c r="BV25" s="1">
-        <v>-706.638000</v>
+        <v>-706.63800000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>12959.003842</v>
@@ -6617,287 +7033,288 @@
         <v>3.599723</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1467.590000</v>
+        <v>1467.59</v>
       </c>
       <c r="CA25" s="1">
-        <v>-925.920000</v>
+        <v>-925.92</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>12972.148817</v>
+        <v>12972.148816999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>3.603375</v>
+        <v>3.6033750000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>1829.010000</v>
+        <v>1829.01</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1446.430000</v>
+        <v>-1446.43</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>12798.200886</v>
+        <v>12798.200886000001</v>
       </c>
       <c r="B26" s="1">
         <v>3.555056</v>
       </c>
       <c r="C26" s="1">
-        <v>896.063000</v>
+        <v>896.06299999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-199.052000</v>
+        <v>-199.05199999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>12808.684297</v>
       </c>
       <c r="G26" s="1">
-        <v>3.557968</v>
+        <v>3.5579679999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>913.989000</v>
+        <v>913.98900000000003</v>
       </c>
       <c r="I26" s="1">
-        <v>-168.528000</v>
+        <v>-168.52799999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>12819.559611</v>
+        <v>12819.559611000001</v>
       </c>
       <c r="L26" s="1">
-        <v>3.560989</v>
+        <v>3.5609890000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>937.706000</v>
+        <v>937.70600000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.562000</v>
+        <v>-119.562</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>12830.115934</v>
+        <v>12830.115933999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>3.563921</v>
+        <v>3.5639210000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>944.505000</v>
+        <v>944.505</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.385000</v>
+        <v>-103.38500000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>12840.562670</v>
+        <v>12840.562669999999</v>
       </c>
       <c r="V26" s="1">
-        <v>3.566823</v>
+        <v>3.5668229999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>950.955000</v>
+        <v>950.95500000000004</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.363800</v>
+        <v>-88.363799999999998</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>12851.140361</v>
       </c>
       <c r="AA26" s="1">
-        <v>3.569761</v>
+        <v>3.5697610000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>958.156000</v>
+        <v>958.15599999999995</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.916600</v>
+        <v>-76.916600000000003</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>12861.538483</v>
       </c>
       <c r="AF26" s="1">
-        <v>3.572650</v>
+        <v>3.5726499999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>962.767000</v>
+        <v>962.76700000000005</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.798300</v>
+        <v>-74.798299999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>12872.128069</v>
       </c>
       <c r="AK26" s="1">
-        <v>3.575591</v>
+        <v>3.5755910000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>969.990000</v>
+        <v>969.99</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.634400</v>
+        <v>-79.634399999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>12883.102087</v>
+        <v>12883.102086999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>3.578639</v>
+        <v>3.5786389999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>978.004000</v>
+        <v>978.00400000000002</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.418000</v>
+        <v>-91.418000000000006</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>12894.292296</v>
       </c>
       <c r="AU26" s="1">
-        <v>3.581748</v>
+        <v>3.5817480000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>987.885000</v>
+        <v>987.88499999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.139000</v>
+        <v>-109.139</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>12905.273754</v>
       </c>
       <c r="AZ26" s="1">
-        <v>3.584798</v>
+        <v>3.5847980000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>996.188000</v>
+        <v>996.18799999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.801000</v>
+        <v>-124.801</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>12916.361291</v>
+        <v>12916.361290999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>3.587878</v>
+        <v>3.5878779999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1034.720000</v>
+        <v>1034.72</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.182000</v>
+        <v>-197.18199999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>12927.539163</v>
+        <v>12927.539162999999</v>
       </c>
       <c r="BJ26" s="1">
         <v>3.590983</v>
       </c>
       <c r="BK26" s="1">
-        <v>1101.020000</v>
+        <v>1101.02</v>
       </c>
       <c r="BL26" s="1">
-        <v>-314.829000</v>
+        <v>-314.82900000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>12937.804862</v>
+        <v>12937.804862000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>3.593835</v>
+        <v>3.5938349999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1208.840000</v>
+        <v>1208.8399999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-501.201000</v>
+        <v>-501.20100000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>12948.440048</v>
       </c>
       <c r="BT26" s="1">
-        <v>3.596789</v>
+        <v>3.5967889999999998</v>
       </c>
       <c r="BU26" s="1">
-        <v>1330.820000</v>
+        <v>1330.82</v>
       </c>
       <c r="BV26" s="1">
-        <v>-706.753000</v>
+        <v>-706.75300000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>12959.423987</v>
       </c>
       <c r="BY26" s="1">
-        <v>3.599840</v>
+        <v>3.5998399999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1467.660000</v>
+        <v>1467.66</v>
       </c>
       <c r="CA26" s="1">
-        <v>-925.940000</v>
+        <v>-925.94</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>12972.678544</v>
       </c>
       <c r="CD26" s="1">
-        <v>3.603522</v>
+        <v>3.6035219999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1828.660000</v>
+        <v>1828.66</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1447.800000</v>
+        <v>-1447.8</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>